--- a/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6164934787309164</v>
+        <v>0.6164934787307459</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1500775736061684</v>
+        <v>0.1500775736062394</v>
       </c>
       <c r="E2">
         <v>0.4493276679189506</v>
       </c>
       <c r="F2">
-        <v>4.643250035570418</v>
+        <v>4.643250035570446</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.4218031679614427</v>
+        <v>0.4218031679614356</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3.613537162730097</v>
+        <v>3.613537162730125</v>
       </c>
       <c r="K2">
-        <v>1.160725847767367</v>
+        <v>1.160725847767395</v>
       </c>
       <c r="L2">
-        <v>1.229693811519809</v>
+        <v>1.229693811519837</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5333731474420063</v>
+        <v>0.5333731474420631</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1294877544298458</v>
+        <v>0.1294877544296327</v>
       </c>
       <c r="E3">
-        <v>0.3866726855064755</v>
+        <v>0.386672685506511</v>
       </c>
       <c r="F3">
-        <v>3.984563253637845</v>
+        <v>3.984563253637901</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.420831479764999</v>
+        <v>0.4208314797650132</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>3.085623894573132</v>
       </c>
       <c r="K3">
-        <v>0.9894352835755882</v>
+        <v>0.9894352835756024</v>
       </c>
       <c r="L3">
-        <v>1.05215564154048</v>
+        <v>1.052155641540494</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4828459637009104</v>
+        <v>0.482845963700882</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1177281852909431</v>
+        <v>0.1177281852907868</v>
       </c>
       <c r="E4">
-        <v>0.3496067238985461</v>
+        <v>0.349606723898539</v>
       </c>
       <c r="F4">
-        <v>3.600149360383341</v>
+        <v>3.600149360383426</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.4221021989047493</v>
+        <v>0.4221021989047458</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.771156916437306</v>
+        <v>2.771156916437334</v>
       </c>
       <c r="K4">
         <v>0.8878528286942498</v>
       </c>
       <c r="L4">
-        <v>0.9462142382349441</v>
+        <v>0.9462142382349512</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4623582294138373</v>
+        <v>0.4623582294139652</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1131225148892128</v>
+        <v>0.1131225148890849</v>
       </c>
       <c r="E5">
-        <v>0.3347818038029189</v>
+        <v>0.3347818038029402</v>
       </c>
       <c r="F5">
         <v>3.447713630626282</v>
@@ -556,7 +556,7 @@
         <v>0.8471999696060664</v>
       </c>
       <c r="L5">
-        <v>0.9036762649243641</v>
+        <v>0.9036762649243713</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.45896176652208</v>
+        <v>0.4589617665221368</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1123680777511709</v>
+        <v>0.1123680777507161</v>
       </c>
       <c r="E6">
         <v>0.3323351314113623</v>
       </c>
       <c r="F6">
-        <v>3.422634911570668</v>
+        <v>3.422634911570697</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.4232200492745832</v>
+        <v>0.4232200492745726</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>2.624136997395411</v>
       </c>
       <c r="K6">
-        <v>0.8404902451053289</v>
+        <v>0.8404902451053147</v>
       </c>
       <c r="L6">
-        <v>0.8966475354068137</v>
+        <v>0.8966475354068066</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4825692751406905</v>
+        <v>0.4825692751408468</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.117665359427221</v>
+        <v>0.1176653594268657</v>
       </c>
       <c r="E7">
-        <v>0.3494057446779379</v>
+        <v>0.3494057446779024</v>
       </c>
       <c r="F7">
-        <v>3.598077476721159</v>
+        <v>3.59807747672113</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0.8873017558535565</v>
       </c>
       <c r="L7">
-        <v>0.9456381555610847</v>
+        <v>0.9456381555610633</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5877114256869049</v>
+        <v>0.5877114256867344</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1427716728572079</v>
+        <v>0.1427716728569095</v>
       </c>
       <c r="E8">
         <v>0.4273840957074029</v>
       </c>
       <c r="F8">
-        <v>4.411442405417432</v>
+        <v>4.411442405417404</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3.42920252236614</v>
+        <v>3.429202522366097</v>
       </c>
       <c r="K8">
-        <v>1.10081476790053</v>
+        <v>1.100814767900559</v>
       </c>
       <c r="L8">
-        <v>1.167752092912551</v>
+        <v>1.167752092912572</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,31 +684,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2010115137468631</v>
+        <v>0.2010115137470763</v>
       </c>
       <c r="E9">
-        <v>0.5956753428154968</v>
+        <v>0.5956753428155963</v>
       </c>
       <c r="F9">
-        <v>6.211192768127432</v>
+        <v>6.211192768127376</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.436486649501667</v>
+        <v>0.4364866495016599</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.82565217638836</v>
+        <v>4.825652176388331</v>
       </c>
       <c r="K9">
-        <v>1.556949720354098</v>
+        <v>1.556949720354069</v>
       </c>
       <c r="L9">
-        <v>1.635302978290142</v>
+        <v>1.63530297829017</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9605045127171934</v>
+        <v>0.9605045127173355</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2529988633379361</v>
+        <v>0.2529988633381492</v>
       </c>
       <c r="E10">
-        <v>0.736729557693657</v>
+        <v>0.7367295576936783</v>
       </c>
       <c r="F10">
-        <v>7.742412973046356</v>
+        <v>7.742412973046413</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.961964110298027</v>
+        <v>5.961964110298084</v>
       </c>
       <c r="K10">
-        <v>1.931225723819963</v>
+        <v>1.931225723820035</v>
       </c>
       <c r="L10">
         <v>2.012184983194942</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.035813483089356</v>
+        <v>1.035813483089328</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2798833311590698</v>
+        <v>0.2798833311586435</v>
       </c>
       <c r="E11">
-        <v>0.8074425530984328</v>
+        <v>0.8074425530984612</v>
       </c>
       <c r="F11">
-        <v>8.512060375259608</v>
+        <v>8.512060375259722</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.4805289208080836</v>
+        <v>0.4805289208080978</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.518652093535223</v>
+        <v>6.51865209353528</v>
       </c>
       <c r="K11">
-        <v>2.115330150963089</v>
+        <v>2.115330150963061</v>
       </c>
       <c r="L11">
         <v>2.195379741973596</v>
@@ -798,28 +798,28 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.290682536961512</v>
+        <v>0.2906825369609436</v>
       </c>
       <c r="E12">
-        <v>0.835512337688364</v>
+        <v>0.8355123376883853</v>
       </c>
       <c r="F12">
-        <v>8.817412679125795</v>
+        <v>8.817412679125852</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.4879228868969605</v>
+        <v>0.4879228868969747</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.737118969811718</v>
+        <v>6.737118969811689</v>
       </c>
       <c r="K12">
-        <v>2.187686384792613</v>
+        <v>2.187686384792585</v>
       </c>
       <c r="L12">
         <v>2.266984177628558</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.058461440075092</v>
+        <v>1.058461440075234</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.28832612287205</v>
+        <v>0.288326122871652</v>
       </c>
       <c r="E13">
         <v>0.8294023596394453</v>
@@ -857,10 +857,10 @@
         <v>6.689688447907315</v>
       </c>
       <c r="K13">
-        <v>2.171972794775016</v>
+        <v>2.171972794775073</v>
       </c>
       <c r="L13">
-        <v>2.251452772107768</v>
+        <v>2.251452772107754</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.03818208637648</v>
+        <v>1.038182086376594</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2807582972531009</v>
+        <v>0.2807582972529161</v>
       </c>
       <c r="E14">
         <v>0.8097234443789603</v>
       </c>
       <c r="F14">
-        <v>8.536879219516322</v>
+        <v>8.536879219516351</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.4811179599133766</v>
+        <v>0.4811179599133908</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.536458179037652</v>
+        <v>6.53645817903768</v>
       </c>
       <c r="K14">
-        <v>2.121225455638736</v>
+        <v>2.121225455638708</v>
       </c>
       <c r="L14">
-        <v>2.201222119022603</v>
+        <v>2.201222119022617</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.025811478637252</v>
+        <v>1.025811478637308</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2762089069357501</v>
+        <v>0.276208906935949</v>
       </c>
       <c r="E15">
-        <v>0.7978506750903662</v>
+        <v>0.7978506750903804</v>
       </c>
       <c r="F15">
         <v>8.407679522738448</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.4780751861768806</v>
+        <v>0.4780751861768522</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.443667999539059</v>
+        <v>6.443667999539116</v>
       </c>
       <c r="K15">
-        <v>2.090508341288157</v>
+        <v>2.090508341288142</v>
       </c>
       <c r="L15">
         <v>2.170764581793151</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9556294573147284</v>
+        <v>0.9556294573147568</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2513188617601259</v>
+        <v>0.2513188617605664</v>
       </c>
       <c r="E16">
-        <v>0.7322670037844858</v>
+        <v>0.7322670037844645</v>
       </c>
       <c r="F16">
-        <v>7.693848562727624</v>
+        <v>7.693848562727595</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.4623616366959595</v>
+        <v>0.4623616366959524</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.926534015096308</v>
+        <v>5.926534015096337</v>
       </c>
       <c r="K16">
-        <v>1.919523071803908</v>
+        <v>1.91952307180388</v>
       </c>
       <c r="L16">
         <v>2.00049144890437</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9131357006442045</v>
+        <v>0.9131357006442897</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0.2369709065825703</v>
       </c>
       <c r="E17">
-        <v>0.6939202468700572</v>
+        <v>0.6939202468700216</v>
       </c>
       <c r="F17">
         <v>7.276715729465877</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.4540991936291832</v>
+        <v>0.454099193629169</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.620652837270541</v>
+        <v>5.620652837270512</v>
       </c>
       <c r="K17">
-        <v>1.818570147415755</v>
+        <v>1.818570147415741</v>
       </c>
       <c r="L17">
-        <v>1.899375077273319</v>
+        <v>1.899375077273334</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8888749289489795</v>
+        <v>0.8888749289488658</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2290111419198411</v>
+        <v>0.229011141919429</v>
       </c>
       <c r="E18">
-        <v>0.6724533693703592</v>
+        <v>0.6724533693703876</v>
       </c>
       <c r="F18">
-        <v>7.043413582660548</v>
+        <v>7.043413582660577</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.448314069647779</v>
+        <v>5.448314069647722</v>
       </c>
       <c r="K18">
-        <v>1.761758644898208</v>
+        <v>1.761758644898194</v>
       </c>
       <c r="L18">
-        <v>1.842280504552122</v>
+        <v>1.842280504552136</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8806894728746499</v>
+        <v>0.8806894728748205</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2263625766201329</v>
+        <v>0.2263625766201756</v>
       </c>
       <c r="E19">
         <v>0.6652776254508836</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.4484127575464001</v>
+        <v>0.448412757546393</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.390532268286904</v>
+        <v>5.390532268286961</v>
       </c>
       <c r="K19">
-        <v>1.742722317497112</v>
+        <v>1.742722317497083</v>
       </c>
       <c r="L19">
         <v>1.823118481049065</v>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9176400194002383</v>
+        <v>0.9176400194003804</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0.2384670308562846</v>
       </c>
       <c r="E20">
-        <v>0.6979392289947342</v>
+        <v>0.697939228994727</v>
       </c>
       <c r="F20">
-        <v>7.320414098567113</v>
+        <v>7.320414098567142</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.652830346773186</v>
+        <v>5.652830346773158</v>
       </c>
       <c r="K20">
-        <v>1.829182984917722</v>
+        <v>1.829182984917708</v>
       </c>
       <c r="L20">
         <v>1.91002552437989</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.044127788679475</v>
+        <v>1.044127788679504</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,28 +1143,28 @@
         <v>0.2829628405611118</v>
       </c>
       <c r="E21">
-        <v>0.8154650284810998</v>
+        <v>0.8154650284810572</v>
       </c>
       <c r="F21">
-        <v>8.599350080187463</v>
+        <v>8.599350080187406</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.482610064433274</v>
+        <v>0.4826100644332527</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.581238528336542</v>
+        <v>6.581238528336485</v>
       </c>
       <c r="K21">
-        <v>2.136053160030187</v>
+        <v>2.136053160030173</v>
       </c>
       <c r="L21">
-        <v>2.215910172557557</v>
+        <v>2.215910172557528</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.129010183992364</v>
+        <v>1.129010183992193</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3157704944821518</v>
+        <v>0.3157704944823507</v>
       </c>
       <c r="E22">
-        <v>0.9000916775413117</v>
+        <v>0.9000916775412975</v>
       </c>
       <c r="F22">
-        <v>9.518893181327172</v>
+        <v>9.518893181327257</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.5060647061200569</v>
+        <v>0.5060647061200712</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.234181913118192</v>
+        <v>7.234181913118249</v>
       </c>
       <c r="K22">
-        <v>2.35249937787006</v>
+        <v>2.352499377870089</v>
       </c>
       <c r="L22">
-        <v>2.429253240168705</v>
+        <v>2.429253240168691</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.083468636190247</v>
+        <v>1.08346863619019</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2978513695361329</v>
+        <v>0.2978513695359197</v>
       </c>
       <c r="E23">
-        <v>0.8540515926705865</v>
+        <v>0.8540515926705297</v>
       </c>
       <c r="F23">
         <v>9.018965859767263</v>
@@ -1237,10 +1237,10 @@
         <v>6.880612354907242</v>
       </c>
       <c r="K23">
-        <v>2.23524003310402</v>
+        <v>2.235240033104006</v>
       </c>
       <c r="L23">
-        <v>2.313922513817246</v>
+        <v>2.313922513817232</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9156030950503009</v>
+        <v>0.9156030950501588</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2377897433839564</v>
+        <v>0.2377897433841554</v>
       </c>
       <c r="E24">
-        <v>0.6961204674582007</v>
+        <v>0.6961204674581651</v>
       </c>
       <c r="F24">
-        <v>7.30063801617186</v>
+        <v>7.300638016171888</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.4545535645047423</v>
+        <v>0.4545535645047138</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.638272077451546</v>
+        <v>5.638272077451603</v>
       </c>
       <c r="K24">
-        <v>1.824381142554998</v>
+        <v>1.824381142555012</v>
       </c>
       <c r="L24">
-        <v>1.905207260359902</v>
+        <v>1.905207260359873</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7412728577974974</v>
+        <v>0.7412728577972985</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1839684323615955</v>
+        <v>0.1839684323616098</v>
       </c>
       <c r="E25">
-        <v>0.5478105958660819</v>
+        <v>0.5478105958660606</v>
       </c>
       <c r="F25">
         <v>5.695012342825663</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.432703658304376</v>
+        <v>4.43270365830432</v>
       </c>
       <c r="K25">
-        <v>1.428108041823705</v>
+        <v>1.428108041823691</v>
       </c>
       <c r="L25">
-        <v>1.504168419378473</v>
+        <v>1.504168419378459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6164934787307459</v>
+        <v>0.6164934787309164</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1500775736062394</v>
+        <v>0.1500775736061684</v>
       </c>
       <c r="E2">
         <v>0.4493276679189506</v>
       </c>
       <c r="F2">
-        <v>4.643250035570446</v>
+        <v>4.643250035570418</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.4218031679614356</v>
+        <v>0.4218031679614427</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3.613537162730125</v>
+        <v>3.613537162730097</v>
       </c>
       <c r="K2">
-        <v>1.160725847767395</v>
+        <v>1.160725847767367</v>
       </c>
       <c r="L2">
-        <v>1.229693811519837</v>
+        <v>1.229693811519809</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5333731474420631</v>
+        <v>0.5333731474420063</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1294877544296327</v>
+        <v>0.1294877544298458</v>
       </c>
       <c r="E3">
-        <v>0.386672685506511</v>
+        <v>0.3866726855064755</v>
       </c>
       <c r="F3">
-        <v>3.984563253637901</v>
+        <v>3.984563253637845</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.4208314797650132</v>
+        <v>0.420831479764999</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>3.085623894573132</v>
       </c>
       <c r="K3">
-        <v>0.9894352835756024</v>
+        <v>0.9894352835755882</v>
       </c>
       <c r="L3">
-        <v>1.052155641540494</v>
+        <v>1.05215564154048</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.482845963700882</v>
+        <v>0.4828459637009104</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1177281852907868</v>
+        <v>0.1177281852909431</v>
       </c>
       <c r="E4">
-        <v>0.349606723898539</v>
+        <v>0.3496067238985461</v>
       </c>
       <c r="F4">
-        <v>3.600149360383426</v>
+        <v>3.600149360383341</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.4221021989047458</v>
+        <v>0.4221021989047493</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.771156916437334</v>
+        <v>2.771156916437306</v>
       </c>
       <c r="K4">
         <v>0.8878528286942498</v>
       </c>
       <c r="L4">
-        <v>0.9462142382349512</v>
+        <v>0.9462142382349441</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4623582294139652</v>
+        <v>0.4623582294138373</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1131225148890849</v>
+        <v>0.1131225148892128</v>
       </c>
       <c r="E5">
-        <v>0.3347818038029402</v>
+        <v>0.3347818038029189</v>
       </c>
       <c r="F5">
         <v>3.447713630626282</v>
@@ -556,7 +556,7 @@
         <v>0.8471999696060664</v>
       </c>
       <c r="L5">
-        <v>0.9036762649243713</v>
+        <v>0.9036762649243641</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4589617665221368</v>
+        <v>0.45896176652208</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1123680777507161</v>
+        <v>0.1123680777511709</v>
       </c>
       <c r="E6">
         <v>0.3323351314113623</v>
       </c>
       <c r="F6">
-        <v>3.422634911570697</v>
+        <v>3.422634911570668</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.4232200492745726</v>
+        <v>0.4232200492745832</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>2.624136997395411</v>
       </c>
       <c r="K6">
-        <v>0.8404902451053147</v>
+        <v>0.8404902451053289</v>
       </c>
       <c r="L6">
-        <v>0.8966475354068066</v>
+        <v>0.8966475354068137</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4825692751408468</v>
+        <v>0.4825692751406905</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1176653594268657</v>
+        <v>0.117665359427221</v>
       </c>
       <c r="E7">
-        <v>0.3494057446779024</v>
+        <v>0.3494057446779379</v>
       </c>
       <c r="F7">
-        <v>3.59807747672113</v>
+        <v>3.598077476721159</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0.8873017558535565</v>
       </c>
       <c r="L7">
-        <v>0.9456381555610633</v>
+        <v>0.9456381555610847</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5877114256867344</v>
+        <v>0.5877114256869049</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1427716728569095</v>
+        <v>0.1427716728572079</v>
       </c>
       <c r="E8">
         <v>0.4273840957074029</v>
       </c>
       <c r="F8">
-        <v>4.411442405417404</v>
+        <v>4.411442405417432</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3.429202522366097</v>
+        <v>3.42920252236614</v>
       </c>
       <c r="K8">
-        <v>1.100814767900559</v>
+        <v>1.10081476790053</v>
       </c>
       <c r="L8">
-        <v>1.167752092912572</v>
+        <v>1.167752092912551</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,31 +684,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2010115137470763</v>
+        <v>0.2010115137468631</v>
       </c>
       <c r="E9">
-        <v>0.5956753428155963</v>
+        <v>0.5956753428154968</v>
       </c>
       <c r="F9">
-        <v>6.211192768127376</v>
+        <v>6.211192768127432</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.4364866495016599</v>
+        <v>0.436486649501667</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.825652176388331</v>
+        <v>4.82565217638836</v>
       </c>
       <c r="K9">
-        <v>1.556949720354069</v>
+        <v>1.556949720354098</v>
       </c>
       <c r="L9">
-        <v>1.63530297829017</v>
+        <v>1.635302978290142</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9605045127173355</v>
+        <v>0.9605045127171934</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2529988633381492</v>
+        <v>0.2529988633379361</v>
       </c>
       <c r="E10">
-        <v>0.7367295576936783</v>
+        <v>0.736729557693657</v>
       </c>
       <c r="F10">
-        <v>7.742412973046413</v>
+        <v>7.742412973046356</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.961964110298084</v>
+        <v>5.961964110298027</v>
       </c>
       <c r="K10">
-        <v>1.931225723820035</v>
+        <v>1.931225723819963</v>
       </c>
       <c r="L10">
         <v>2.012184983194942</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.035813483089328</v>
+        <v>1.035813483089356</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2798833311586435</v>
+        <v>0.2798833311590698</v>
       </c>
       <c r="E11">
-        <v>0.8074425530984612</v>
+        <v>0.8074425530984328</v>
       </c>
       <c r="F11">
-        <v>8.512060375259722</v>
+        <v>8.512060375259608</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.4805289208080978</v>
+        <v>0.4805289208080836</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.51865209353528</v>
+        <v>6.518652093535223</v>
       </c>
       <c r="K11">
-        <v>2.115330150963061</v>
+        <v>2.115330150963089</v>
       </c>
       <c r="L11">
         <v>2.195379741973596</v>
@@ -798,28 +798,28 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2906825369609436</v>
+        <v>0.290682536961512</v>
       </c>
       <c r="E12">
-        <v>0.8355123376883853</v>
+        <v>0.835512337688364</v>
       </c>
       <c r="F12">
-        <v>8.817412679125852</v>
+        <v>8.817412679125795</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.4879228868969747</v>
+        <v>0.4879228868969605</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.737118969811689</v>
+        <v>6.737118969811718</v>
       </c>
       <c r="K12">
-        <v>2.187686384792585</v>
+        <v>2.187686384792613</v>
       </c>
       <c r="L12">
         <v>2.266984177628558</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.058461440075234</v>
+        <v>1.058461440075092</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.288326122871652</v>
+        <v>0.28832612287205</v>
       </c>
       <c r="E13">
         <v>0.8294023596394453</v>
@@ -857,10 +857,10 @@
         <v>6.689688447907315</v>
       </c>
       <c r="K13">
-        <v>2.171972794775073</v>
+        <v>2.171972794775016</v>
       </c>
       <c r="L13">
-        <v>2.251452772107754</v>
+        <v>2.251452772107768</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.038182086376594</v>
+        <v>1.03818208637648</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2807582972529161</v>
+        <v>0.2807582972531009</v>
       </c>
       <c r="E14">
         <v>0.8097234443789603</v>
       </c>
       <c r="F14">
-        <v>8.536879219516351</v>
+        <v>8.536879219516322</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.4811179599133908</v>
+        <v>0.4811179599133766</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.53645817903768</v>
+        <v>6.536458179037652</v>
       </c>
       <c r="K14">
-        <v>2.121225455638708</v>
+        <v>2.121225455638736</v>
       </c>
       <c r="L14">
-        <v>2.201222119022617</v>
+        <v>2.201222119022603</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.025811478637308</v>
+        <v>1.025811478637252</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.276208906935949</v>
+        <v>0.2762089069357501</v>
       </c>
       <c r="E15">
-        <v>0.7978506750903804</v>
+        <v>0.7978506750903662</v>
       </c>
       <c r="F15">
         <v>8.407679522738448</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.4780751861768522</v>
+        <v>0.4780751861768806</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.443667999539116</v>
+        <v>6.443667999539059</v>
       </c>
       <c r="K15">
-        <v>2.090508341288142</v>
+        <v>2.090508341288157</v>
       </c>
       <c r="L15">
         <v>2.170764581793151</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9556294573147568</v>
+        <v>0.9556294573147284</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2513188617605664</v>
+        <v>0.2513188617601259</v>
       </c>
       <c r="E16">
-        <v>0.7322670037844645</v>
+        <v>0.7322670037844858</v>
       </c>
       <c r="F16">
-        <v>7.693848562727595</v>
+        <v>7.693848562727624</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.4623616366959524</v>
+        <v>0.4623616366959595</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.926534015096337</v>
+        <v>5.926534015096308</v>
       </c>
       <c r="K16">
-        <v>1.91952307180388</v>
+        <v>1.919523071803908</v>
       </c>
       <c r="L16">
         <v>2.00049144890437</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9131357006442897</v>
+        <v>0.9131357006442045</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0.2369709065825703</v>
       </c>
       <c r="E17">
-        <v>0.6939202468700216</v>
+        <v>0.6939202468700572</v>
       </c>
       <c r="F17">
         <v>7.276715729465877</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.454099193629169</v>
+        <v>0.4540991936291832</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.620652837270512</v>
+        <v>5.620652837270541</v>
       </c>
       <c r="K17">
-        <v>1.818570147415741</v>
+        <v>1.818570147415755</v>
       </c>
       <c r="L17">
-        <v>1.899375077273334</v>
+        <v>1.899375077273319</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8888749289488658</v>
+        <v>0.8888749289489795</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.229011141919429</v>
+        <v>0.2290111419198411</v>
       </c>
       <c r="E18">
-        <v>0.6724533693703876</v>
+        <v>0.6724533693703592</v>
       </c>
       <c r="F18">
-        <v>7.043413582660577</v>
+        <v>7.043413582660548</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.448314069647722</v>
+        <v>5.448314069647779</v>
       </c>
       <c r="K18">
-        <v>1.761758644898194</v>
+        <v>1.761758644898208</v>
       </c>
       <c r="L18">
-        <v>1.842280504552136</v>
+        <v>1.842280504552122</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8806894728748205</v>
+        <v>0.8806894728746499</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2263625766201756</v>
+        <v>0.2263625766201329</v>
       </c>
       <c r="E19">
         <v>0.6652776254508836</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.448412757546393</v>
+        <v>0.4484127575464001</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.390532268286961</v>
+        <v>5.390532268286904</v>
       </c>
       <c r="K19">
-        <v>1.742722317497083</v>
+        <v>1.742722317497112</v>
       </c>
       <c r="L19">
         <v>1.823118481049065</v>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9176400194003804</v>
+        <v>0.9176400194002383</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0.2384670308562846</v>
       </c>
       <c r="E20">
-        <v>0.697939228994727</v>
+        <v>0.6979392289947342</v>
       </c>
       <c r="F20">
-        <v>7.320414098567142</v>
+        <v>7.320414098567113</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.652830346773158</v>
+        <v>5.652830346773186</v>
       </c>
       <c r="K20">
-        <v>1.829182984917708</v>
+        <v>1.829182984917722</v>
       </c>
       <c r="L20">
         <v>1.91002552437989</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.044127788679504</v>
+        <v>1.044127788679475</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,28 +1143,28 @@
         <v>0.2829628405611118</v>
       </c>
       <c r="E21">
-        <v>0.8154650284810572</v>
+        <v>0.8154650284810998</v>
       </c>
       <c r="F21">
-        <v>8.599350080187406</v>
+        <v>8.599350080187463</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.4826100644332527</v>
+        <v>0.482610064433274</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.581238528336485</v>
+        <v>6.581238528336542</v>
       </c>
       <c r="K21">
-        <v>2.136053160030173</v>
+        <v>2.136053160030187</v>
       </c>
       <c r="L21">
-        <v>2.215910172557528</v>
+        <v>2.215910172557557</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.129010183992193</v>
+        <v>1.129010183992364</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3157704944823507</v>
+        <v>0.3157704944821518</v>
       </c>
       <c r="E22">
-        <v>0.9000916775412975</v>
+        <v>0.9000916775413117</v>
       </c>
       <c r="F22">
-        <v>9.518893181327257</v>
+        <v>9.518893181327172</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.5060647061200712</v>
+        <v>0.5060647061200569</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.234181913118249</v>
+        <v>7.234181913118192</v>
       </c>
       <c r="K22">
-        <v>2.352499377870089</v>
+        <v>2.35249937787006</v>
       </c>
       <c r="L22">
-        <v>2.429253240168691</v>
+        <v>2.429253240168705</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.08346863619019</v>
+        <v>1.083468636190247</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2978513695359197</v>
+        <v>0.2978513695361329</v>
       </c>
       <c r="E23">
-        <v>0.8540515926705297</v>
+        <v>0.8540515926705865</v>
       </c>
       <c r="F23">
         <v>9.018965859767263</v>
@@ -1237,10 +1237,10 @@
         <v>6.880612354907242</v>
       </c>
       <c r="K23">
-        <v>2.235240033104006</v>
+        <v>2.23524003310402</v>
       </c>
       <c r="L23">
-        <v>2.313922513817232</v>
+        <v>2.313922513817246</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9156030950501588</v>
+        <v>0.9156030950503009</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2377897433841554</v>
+        <v>0.2377897433839564</v>
       </c>
       <c r="E24">
-        <v>0.6961204674581651</v>
+        <v>0.6961204674582007</v>
       </c>
       <c r="F24">
-        <v>7.300638016171888</v>
+        <v>7.30063801617186</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.4545535645047138</v>
+        <v>0.4545535645047423</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.638272077451603</v>
+        <v>5.638272077451546</v>
       </c>
       <c r="K24">
-        <v>1.824381142555012</v>
+        <v>1.824381142554998</v>
       </c>
       <c r="L24">
-        <v>1.905207260359873</v>
+        <v>1.905207260359902</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7412728577972985</v>
+        <v>0.7412728577974974</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1839684323616098</v>
+        <v>0.1839684323615955</v>
       </c>
       <c r="E25">
-        <v>0.5478105958660606</v>
+        <v>0.5478105958660819</v>
       </c>
       <c r="F25">
         <v>5.695012342825663</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.43270365830432</v>
+        <v>4.432703658304376</v>
       </c>
       <c r="K25">
-        <v>1.428108041823691</v>
+        <v>1.428108041823705</v>
       </c>
       <c r="L25">
-        <v>1.504168419378459</v>
+        <v>1.504168419378473</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6164934787309164</v>
+        <v>0.6146210664267073</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1500775736061684</v>
+        <v>0.1503668377871321</v>
       </c>
       <c r="E2">
-        <v>0.4493276679189506</v>
+        <v>0.4338251826427708</v>
       </c>
       <c r="F2">
-        <v>4.643250035570418</v>
+        <v>4.620326667148618</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007193616580895848</v>
       </c>
       <c r="H2">
-        <v>0.4218031679614427</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4296284370501979</v>
       </c>
       <c r="J2">
-        <v>3.613537162730097</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.160725847767367</v>
+        <v>3.566149545413992</v>
       </c>
       <c r="L2">
-        <v>1.229693811519809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.150188119467145</v>
+      </c>
+      <c r="M2">
+        <v>1.220486505677329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5333731474420063</v>
+        <v>0.5317646982517488</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1294877544298458</v>
+        <v>0.1306005534156327</v>
       </c>
       <c r="E3">
-        <v>0.3866726855064755</v>
+        <v>0.3725151805729752</v>
       </c>
       <c r="F3">
-        <v>3.984563253637845</v>
+        <v>3.974197341273822</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007353988173125359</v>
       </c>
       <c r="H3">
-        <v>0.420831479764999</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4294521049308244</v>
       </c>
       <c r="J3">
-        <v>3.085623894573132</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9894352835755882</v>
+        <v>3.045049837593936</v>
       </c>
       <c r="L3">
-        <v>1.05215564154048</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.9809746589335901</v>
+      </c>
+      <c r="M3">
+        <v>1.044670848863561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4828459637009104</v>
+        <v>0.4813967306369875</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1177281852909431</v>
+        <v>0.1193346266337301</v>
       </c>
       <c r="E4">
-        <v>0.3496067238985461</v>
+        <v>0.3362377798333398</v>
       </c>
       <c r="F4">
-        <v>3.600149360383341</v>
+        <v>3.597218115265008</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007453390931753123</v>
       </c>
       <c r="H4">
-        <v>0.4221021989047493</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4311975086954085</v>
       </c>
       <c r="J4">
-        <v>2.771156916437306</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8878528286942498</v>
+        <v>2.734609906490945</v>
       </c>
       <c r="L4">
-        <v>0.9462142382349441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.88061648610568</v>
+      </c>
+      <c r="M4">
+        <v>0.939747121926338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4623582294138373</v>
+        <v>0.4609734580472207</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1131225148892128</v>
+        <v>0.1149282192975392</v>
       </c>
       <c r="E5">
-        <v>0.3347818038029189</v>
+        <v>0.3217273574527439</v>
       </c>
       <c r="F5">
-        <v>3.447713630626282</v>
+        <v>3.447763500658539</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007494223017304488</v>
       </c>
       <c r="H5">
-        <v>0.4230402226728671</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.432326700794345</v>
       </c>
       <c r="J5">
-        <v>2.64498131434317</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8471999696060664</v>
+        <v>2.610047642499666</v>
       </c>
       <c r="L5">
-        <v>0.9036762649243641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.8404533151275047</v>
+      </c>
+      <c r="M5">
+        <v>0.8976167269521582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.45896176652208</v>
+        <v>0.4575876810689721</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1123680777511709</v>
+        <v>0.1142067832628868</v>
       </c>
       <c r="E6">
-        <v>0.3323351314113623</v>
+        <v>0.3193325570764713</v>
       </c>
       <c r="F6">
-        <v>3.422634911570668</v>
+        <v>3.423177383945017</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007501025127546413</v>
       </c>
       <c r="H6">
-        <v>0.4232200492745832</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4325381633992293</v>
       </c>
       <c r="J6">
-        <v>2.624136997395411</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8404902451053289</v>
+        <v>2.589469838331468</v>
       </c>
       <c r="L6">
-        <v>0.8966475354068137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.8338244376955402</v>
+      </c>
+      <c r="M6">
+        <v>0.8906553181455976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4825692751406905</v>
+        <v>0.4811209127854568</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.117665359427221</v>
+        <v>0.119274494483534</v>
       </c>
       <c r="E7">
-        <v>0.3494057446779379</v>
+        <v>0.3360410668292033</v>
       </c>
       <c r="F7">
-        <v>3.598077476721159</v>
+        <v>3.595186608418686</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007453940185115759</v>
       </c>
       <c r="H7">
-        <v>0.4221132081537675</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4312111039250723</v>
       </c>
       <c r="J7">
-        <v>2.769447837363771</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8873017558535565</v>
+        <v>2.732922684129477</v>
       </c>
       <c r="L7">
-        <v>0.9456381555610847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.8800720504645341</v>
+      </c>
+      <c r="M7">
+        <v>0.93917656148313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5877114256869049</v>
+        <v>0.5859308242776251</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1427716728572079</v>
+        <v>0.1433481404260846</v>
       </c>
       <c r="E8">
-        <v>0.4273840957074029</v>
+        <v>0.4123548046731642</v>
       </c>
       <c r="F8">
-        <v>4.411442405417432</v>
+        <v>4.392920089563944</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007248777659137913</v>
       </c>
       <c r="H8">
-        <v>0.4210484503823579</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.429151579578317</v>
       </c>
       <c r="J8">
-        <v>3.42920252236614</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.10081476790053</v>
+        <v>3.384204589735532</v>
       </c>
       <c r="L8">
-        <v>1.167752092912551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.091006278388178</v>
+      </c>
+      <c r="M8">
+        <v>1.159148975072959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7993168995103019</v>
+        <v>0.7968435651295067</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2010115137468631</v>
+        <v>0.1993995807600726</v>
       </c>
       <c r="E9">
-        <v>0.5956753428154968</v>
+        <v>0.5769305651704073</v>
       </c>
       <c r="F9">
-        <v>6.211192768127432</v>
+        <v>6.158561763174419</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006848849222353959</v>
       </c>
       <c r="H9">
-        <v>0.436486649501667</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4424603461968317</v>
       </c>
       <c r="J9">
-        <v>4.82565217638836</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.556949720354098</v>
+        <v>4.762081999093056</v>
       </c>
       <c r="L9">
-        <v>1.635302978290142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1.541456711731968</v>
+      </c>
+      <c r="M9">
+        <v>1.622004555224905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9605045127171934</v>
+        <v>0.9574583223805746</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2529988633379361</v>
+        <v>0.2495401549901857</v>
       </c>
       <c r="E10">
-        <v>0.736729557693657</v>
+        <v>0.7146556387820056</v>
       </c>
       <c r="F10">
-        <v>7.742412973046356</v>
+        <v>7.659997811962029</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.000654731889189944</v>
       </c>
       <c r="H10">
-        <v>0.4633692700591254</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4675271080794801</v>
       </c>
       <c r="J10">
-        <v>5.961964110298027</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.931225723819963</v>
+        <v>5.882069988397859</v>
       </c>
       <c r="L10">
-        <v>2.012184983194942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.910713193512976</v>
+      </c>
+      <c r="M10">
+        <v>1.99476427746346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.035813483089356</v>
+        <v>1.032477644395641</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2798833311590698</v>
+        <v>0.2754792086346782</v>
       </c>
       <c r="E11">
-        <v>0.8074425530984328</v>
+        <v>0.7835971717909231</v>
       </c>
       <c r="F11">
-        <v>8.512060375259608</v>
+        <v>8.414058265517724</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006405473069939215</v>
       </c>
       <c r="H11">
-        <v>0.4805289208080836</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4837521959165585</v>
       </c>
       <c r="J11">
-        <v>6.518652093535223</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2.115330150963089</v>
+        <v>6.430172046715768</v>
       </c>
       <c r="L11">
-        <v>2.195379741973596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>2.092172467607909</v>
+      </c>
+      <c r="M11">
+        <v>2.175794001591484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.06470094298669</v>
+        <v>1.061249084243371</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.290682536961512</v>
+        <v>0.2858977672308072</v>
       </c>
       <c r="E12">
-        <v>0.835512337688364</v>
+        <v>0.8109410966106978</v>
       </c>
       <c r="F12">
-        <v>8.817412679125795</v>
+        <v>8.713072102203341</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006350720845488434</v>
       </c>
       <c r="H12">
-        <v>0.4879228868969605</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4907691567491739</v>
       </c>
       <c r="J12">
-        <v>6.737118969811718</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>2.187686384792613</v>
+        <v>6.645138681773972</v>
       </c>
       <c r="L12">
-        <v>2.266984177628558</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.163449721265977</v>
+      </c>
+      <c r="M12">
+        <v>2.246516561499419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.058461440075092</v>
+        <v>1.055034897298384</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.28832612287205</v>
+        <v>0.283624501906985</v>
       </c>
       <c r="E13">
-        <v>0.8294023596394453</v>
+        <v>0.8049902891885878</v>
       </c>
       <c r="F13">
-        <v>8.750963152687774</v>
+        <v>8.648010182932467</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006362566211063986</v>
       </c>
       <c r="H13">
-        <v>0.4862869059737349</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4892155603551771</v>
       </c>
       <c r="J13">
-        <v>6.689688447907315</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>2.171972794775016</v>
+        <v>6.598474863335213</v>
       </c>
       <c r="L13">
-        <v>2.251452772107768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>2.147972499027233</v>
+      </c>
+      <c r="M13">
+        <v>2.231178285821983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.03818208637648</v>
+        <v>1.034836846150625</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2807582972531009</v>
+        <v>0.2763233693874412</v>
       </c>
       <c r="E14">
-        <v>0.8097234443789603</v>
+        <v>0.785819587861333</v>
       </c>
       <c r="F14">
-        <v>8.536879219516322</v>
+        <v>8.438365469213096</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.000640099196300378</v>
       </c>
       <c r="H14">
-        <v>0.4811179599133766</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4843107384621703</v>
       </c>
       <c r="J14">
-        <v>6.536458179037652</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>2.121225455638736</v>
+        <v>6.447695782075925</v>
       </c>
       <c r="L14">
-        <v>2.201222119022603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>2.097980746631293</v>
+      </c>
+      <c r="M14">
+        <v>2.181565224624208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.025811478637252</v>
+        <v>1.022515129961334</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2762089069357501</v>
+        <v>0.2719340998984308</v>
       </c>
       <c r="E15">
-        <v>0.7978506750903662</v>
+        <v>0.7742502461939154</v>
       </c>
       <c r="F15">
-        <v>8.407679522738448</v>
+        <v>8.311822630383091</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006424380486194937</v>
       </c>
       <c r="H15">
-        <v>0.4780751861768806</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4814264520959028</v>
       </c>
       <c r="J15">
-        <v>6.443667999539059</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>2.090508341288157</v>
+        <v>6.35637143598214</v>
       </c>
       <c r="L15">
-        <v>2.170764581793151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>2.067715406244545</v>
+      </c>
+      <c r="M15">
+        <v>2.151477117961917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9556294573147284</v>
+        <v>0.9526014508278422</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2513188617601259</v>
+        <v>0.2479192593880555</v>
       </c>
       <c r="E16">
-        <v>0.7322670037844858</v>
+        <v>0.7103023363848706</v>
       </c>
       <c r="F16">
-        <v>7.693848562727624</v>
+        <v>7.612400372308201</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006556466336824015</v>
       </c>
       <c r="H16">
-        <v>0.4623616366959595</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4665778051699547</v>
       </c>
       <c r="J16">
-        <v>5.926534015096308</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.919523071803908</v>
+        <v>5.847171542671759</v>
       </c>
       <c r="L16">
-        <v>2.00049144890437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.899174243224152</v>
+      </c>
+      <c r="M16">
+        <v>1.983204884823422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9131357006442045</v>
+        <v>0.9102636452873867</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2369709065825703</v>
+        <v>0.2340769581707605</v>
       </c>
       <c r="E17">
-        <v>0.6939202468700572</v>
+        <v>0.6728829676515673</v>
       </c>
       <c r="F17">
-        <v>7.276715729465877</v>
+        <v>7.203503340957695</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006636076264005191</v>
       </c>
       <c r="H17">
-        <v>0.4540991936291832</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4588138535819724</v>
       </c>
       <c r="J17">
-        <v>5.620652837270541</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.818570147415755</v>
+        <v>5.545813839138134</v>
       </c>
       <c r="L17">
-        <v>1.899375077273319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.799613639194277</v>
+      </c>
+      <c r="M17">
+        <v>1.883230188670296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8888749289489795</v>
+        <v>0.8860900113590162</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2290111419198411</v>
+        <v>0.2263987197625994</v>
       </c>
       <c r="E18">
-        <v>0.6724533693703592</v>
+        <v>0.651926761300075</v>
       </c>
       <c r="F18">
-        <v>7.043413582660548</v>
+        <v>6.974757842015009</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006681453175183249</v>
       </c>
       <c r="H18">
-        <v>0.4497968818031737</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4547886444535294</v>
       </c>
       <c r="J18">
-        <v>5.448314069647779</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.761758644898208</v>
+        <v>5.37597425443326</v>
       </c>
       <c r="L18">
-        <v>1.842280504552122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.743570942226057</v>
+      </c>
+      <c r="M18">
+        <v>1.826766633755724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8806894728746499</v>
+        <v>0.8779336683886072</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2263625766201329</v>
+        <v>0.2238440486031692</v>
       </c>
       <c r="E19">
-        <v>0.6652776254508836</v>
+        <v>0.6449204320021238</v>
       </c>
       <c r="F19">
-        <v>6.965473867789967</v>
+        <v>6.898333251663814</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006696755317286584</v>
       </c>
       <c r="H19">
-        <v>0.4484127575464001</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4534968653905835</v>
       </c>
       <c r="J19">
-        <v>5.390532268286904</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.742722317497112</v>
+        <v>5.319022902220752</v>
       </c>
       <c r="L19">
-        <v>1.823118481049065</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.724790002956354</v>
+      </c>
+      <c r="M19">
+        <v>1.807814326930455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9176400194002383</v>
+        <v>0.9147516401781104</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2384670308562846</v>
+        <v>0.2355202615850658</v>
       </c>
       <c r="E20">
-        <v>0.6979392289947342</v>
+        <v>0.6768056841669647</v>
       </c>
       <c r="F20">
-        <v>7.320414098567113</v>
+        <v>7.24634448106741</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006627646601902182</v>
       </c>
       <c r="H20">
-        <v>0.4549310110952689</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4595936443115107</v>
       </c>
       <c r="J20">
-        <v>5.652830346773186</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.829182984917722</v>
+        <v>5.577520905003297</v>
       </c>
       <c r="L20">
-        <v>1.91002552437989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.810081720549178</v>
+      </c>
+      <c r="M20">
+        <v>1.893761872947749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.044127788679475</v>
+        <v>1.040758862882825</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2829628405611118</v>
+        <v>0.2784502722472411</v>
       </c>
       <c r="E21">
-        <v>0.8154650284810998</v>
+        <v>0.7914135839515808</v>
       </c>
       <c r="F21">
-        <v>8.599350080187463</v>
+        <v>8.499545774929288</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006389737161418488</v>
       </c>
       <c r="H21">
-        <v>0.482610064433274</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4857259694834539</v>
       </c>
       <c r="J21">
-        <v>6.581238528336542</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>2.136053160030187</v>
+        <v>6.49176378807411</v>
       </c>
       <c r="L21">
-        <v>2.215910172557557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>2.112588884110721</v>
+      </c>
+      <c r="M21">
+        <v>2.196073776057631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.129010183992364</v>
+        <v>1.125288248187076</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3157704944821518</v>
+        <v>0.3100957327580431</v>
       </c>
       <c r="E22">
-        <v>0.9000916775413117</v>
+        <v>0.8737954759744824</v>
       </c>
       <c r="F22">
-        <v>9.518893181327172</v>
+        <v>9.399595972799318</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006227914297064912</v>
       </c>
       <c r="H22">
-        <v>0.5060647061200569</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.5080282196118588</v>
       </c>
       <c r="J22">
-        <v>7.234181913118192</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>2.35249937787006</v>
+        <v>7.133921951977243</v>
       </c>
       <c r="L22">
-        <v>2.429253240168705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>2.325709493162307</v>
+      </c>
+      <c r="M22">
+        <v>2.406701448938989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.083468636190247</v>
+        <v>1.079939732045915</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2978513695361329</v>
+        <v>0.2928132483777688</v>
       </c>
       <c r="E23">
-        <v>0.8540515926705865</v>
+        <v>0.8289932602286996</v>
       </c>
       <c r="F23">
-        <v>9.018965859767263</v>
+        <v>8.910386939640119</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006315022189095833</v>
       </c>
       <c r="H23">
-        <v>0.4929745471027687</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4955696937236382</v>
       </c>
       <c r="J23">
-        <v>6.880612354907242</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>2.23524003310402</v>
+        <v>6.786288709840477</v>
       </c>
       <c r="L23">
-        <v>2.313922513817246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>2.210280858304415</v>
+      </c>
+      <c r="M23">
+        <v>2.292864752564441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9156030950503009</v>
+        <v>0.9127221035538469</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2377897433839564</v>
+        <v>0.2348668825152203</v>
       </c>
       <c r="E24">
-        <v>0.6961204674582007</v>
+        <v>0.6750305131718761</v>
       </c>
       <c r="F24">
-        <v>7.30063801617186</v>
+        <v>7.226956497419962</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006631458848080911</v>
       </c>
       <c r="H24">
-        <v>0.4545535645047423</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4592397480513668</v>
       </c>
       <c r="J24">
-        <v>5.638272077451546</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.824381142554998</v>
+        <v>5.563175633647376</v>
       </c>
       <c r="L24">
-        <v>1.905207260359902</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.805345419348683</v>
+      </c>
+      <c r="M24">
+        <v>1.888997379184815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7412728577974974</v>
+        <v>0.7389944892603069</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1839684323615955</v>
+        <v>0.1829774588477591</v>
       </c>
       <c r="E25">
-        <v>0.5478105958660819</v>
+        <v>0.5301456345848692</v>
       </c>
       <c r="F25">
-        <v>5.695012342825663</v>
+        <v>5.652192734473431</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006957589992512197</v>
       </c>
       <c r="H25">
-        <v>0.4300027428341053</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4365834092612033</v>
       </c>
       <c r="J25">
-        <v>4.432703658304376</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.428108041823705</v>
+        <v>4.374488414050916</v>
       </c>
       <c r="L25">
-        <v>1.504168419378473</v>
+        <v>1.414257631261634</v>
+      </c>
+      <c r="M25">
+        <v>1.492223517689467</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6146210664267073</v>
+        <v>0.2735086547924084</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1503668377871321</v>
+        <v>0.03813999106349542</v>
       </c>
       <c r="E2">
-        <v>0.4338251826427708</v>
+        <v>0.02473284774396234</v>
       </c>
       <c r="F2">
-        <v>4.620326667148618</v>
+        <v>2.772370665897228</v>
       </c>
       <c r="G2">
-        <v>0.0007193616580895848</v>
+        <v>0.0007240366679194645</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4296284370501979</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.566149545413992</v>
+        <v>3.049737276032232</v>
       </c>
       <c r="L2">
-        <v>1.150188119467145</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.220486505677329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.24709308751558</v>
+      </c>
+      <c r="N2">
+        <v>0.6438339954970331</v>
+      </c>
+      <c r="O2">
+        <v>2.255912564477427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5317646982517488</v>
+        <v>0.2389266988997178</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1306005534156327</v>
+        <v>0.03306021560691619</v>
       </c>
       <c r="E3">
-        <v>0.3725151805729752</v>
+        <v>0.02432577599916108</v>
       </c>
       <c r="F3">
-        <v>3.974197341273822</v>
+        <v>2.390288240869182</v>
       </c>
       <c r="G3">
-        <v>0.0007353988173125359</v>
+        <v>0.0007355801679585842</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4294521049308244</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.045049837593936</v>
+        <v>2.624274450252514</v>
       </c>
       <c r="L3">
-        <v>0.9809746589335901</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.044670848863561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.92813943867975</v>
+      </c>
+      <c r="N3">
+        <v>0.6892740253769283</v>
+      </c>
+      <c r="O3">
+        <v>1.945213736011723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4813967306369875</v>
+        <v>0.217882317915624</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1193346266337301</v>
+        <v>0.03020612505728337</v>
       </c>
       <c r="E4">
-        <v>0.3362377798333398</v>
+        <v>0.02422898968926468</v>
       </c>
       <c r="F4">
-        <v>3.597218115265008</v>
+        <v>2.164776178174407</v>
       </c>
       <c r="G4">
-        <v>0.0007453390931753123</v>
+        <v>0.0007427921269105298</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4311975086954085</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.734609906490945</v>
+        <v>2.367718565900901</v>
       </c>
       <c r="L4">
-        <v>0.88061648610568</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.939747121926338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.736502576981351</v>
+      </c>
+      <c r="N4">
+        <v>0.7186042343590415</v>
+      </c>
+      <c r="O4">
+        <v>1.762119947835018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4609734580472207</v>
+        <v>0.2093487211268013</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1149282192975392</v>
+        <v>0.02910027311207131</v>
       </c>
       <c r="E5">
-        <v>0.3217273574527439</v>
+        <v>0.02422440499062439</v>
       </c>
       <c r="F5">
-        <v>3.447763500658539</v>
+        <v>2.074836736169615</v>
       </c>
       <c r="G5">
-        <v>0.0007494223017304488</v>
+        <v>0.0007457664540658105</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.432326700794345</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.610047642499666</v>
+        <v>2.26413271023192</v>
       </c>
       <c r="L5">
-        <v>0.8404533151275047</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8976167269521582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1.659285817744362</v>
+      </c>
+      <c r="N5">
+        <v>0.7309029997073111</v>
+      </c>
+      <c r="O5">
+        <v>1.689162599515299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4575876810689721</v>
+        <v>0.207934120953098</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1142067832628868</v>
+        <v>0.0289198510563935</v>
       </c>
       <c r="E6">
-        <v>0.3193325570764713</v>
+        <v>0.02422564981763387</v>
       </c>
       <c r="F6">
-        <v>3.423177383945017</v>
+        <v>2.0600118408924</v>
       </c>
       <c r="G6">
-        <v>0.0007501025127546413</v>
+        <v>0.0007462625892739867</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4325381633992293</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.589469838331468</v>
+        <v>2.246984744476947</v>
       </c>
       <c r="L6">
-        <v>0.8338244376955402</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8906553181455976</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1.646512146783493</v>
+      </c>
+      <c r="N6">
+        <v>0.7329657674456271</v>
+      </c>
+      <c r="O6">
+        <v>1.677140610105184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4811209127854568</v>
+        <v>0.2177670669478147</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.119274494483534</v>
+        <v>0.03019099102890976</v>
       </c>
       <c r="E7">
-        <v>0.3360410668292033</v>
+        <v>0.02422879125819755</v>
       </c>
       <c r="F7">
-        <v>3.595186608418686</v>
+        <v>2.163555696529357</v>
       </c>
       <c r="G7">
-        <v>0.0007453940185115759</v>
+        <v>0.0007428320912668636</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4312111039250723</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.732922684129477</v>
+        <v>2.366317936443977</v>
       </c>
       <c r="L7">
-        <v>0.8800720504645341</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.93917656148313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1.735457876310932</v>
+      </c>
+      <c r="N7">
+        <v>0.718768713338509</v>
+      </c>
+      <c r="O7">
+        <v>1.761129658951475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5859308242776251</v>
+        <v>0.2615421605931942</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1433481404260846</v>
+        <v>0.03632743213348277</v>
       </c>
       <c r="E8">
-        <v>0.4123548046731642</v>
+        <v>0.02455836459420979</v>
       </c>
       <c r="F8">
-        <v>4.392920089563944</v>
+        <v>2.638532608322123</v>
       </c>
       <c r="G8">
-        <v>0.0007248777659137913</v>
+        <v>0.0007279937579853233</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.429151579578317</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.384204589735532</v>
+        <v>2.901928624240156</v>
       </c>
       <c r="L8">
-        <v>1.091006278388178</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1.159148975072959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.136130187985984</v>
+      </c>
+      <c r="N8">
+        <v>0.6591966789466355</v>
+      </c>
+      <c r="O8">
+        <v>2.147013396948537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7968435651295067</v>
+        <v>0.3491575028095184</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1993995807600726</v>
+        <v>0.05096662530495166</v>
       </c>
       <c r="E9">
-        <v>0.5769305651704073</v>
+        <v>0.02661061008150334</v>
       </c>
       <c r="F9">
-        <v>6.158561763174419</v>
+        <v>3.659339029941435</v>
       </c>
       <c r="G9">
-        <v>0.0006848849222353959</v>
+        <v>0.000699661960085867</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4424603461968317</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.762081999093056</v>
+        <v>4.000770639183742</v>
       </c>
       <c r="L9">
-        <v>1.541456711731968</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.622004555224905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2.964716602810341</v>
+      </c>
+      <c r="N9">
+        <v>0.5543827955082463</v>
+      </c>
+      <c r="O9">
+        <v>2.979209653128109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9574583223805746</v>
+        <v>0.4150400034915407</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2495401549901857</v>
+        <v>0.06417396084187743</v>
       </c>
       <c r="E10">
-        <v>0.7146556387820056</v>
+        <v>0.02929175345375334</v>
       </c>
       <c r="F10">
-        <v>7.659997811962029</v>
+        <v>4.492901479078853</v>
       </c>
       <c r="G10">
-        <v>0.000654731889189944</v>
+        <v>0.0006789452682113864</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4675271080794801</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.882069988397859</v>
+        <v>4.856928419703905</v>
       </c>
       <c r="L10">
-        <v>1.910713193512976</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.99476427746346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3.615696361240055</v>
+      </c>
+      <c r="N10">
+        <v>0.4857515417976259</v>
+      </c>
+      <c r="O10">
+        <v>3.661203069676588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.032477644395641</v>
+        <v>0.4454522250497774</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2754792086346782</v>
+        <v>0.0709702780624184</v>
       </c>
       <c r="E11">
-        <v>0.7835971717909231</v>
+        <v>0.03085577218675617</v>
       </c>
       <c r="F11">
-        <v>8.414058265517724</v>
+        <v>4.898657126786418</v>
       </c>
       <c r="G11">
-        <v>0.0006405473069939215</v>
+        <v>0.0006694362141832499</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4837521959165585</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.430172046715768</v>
+        <v>5.262608167001218</v>
       </c>
       <c r="L11">
-        <v>2.092172467607909</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2.175794001591484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3.92565760068004</v>
+      </c>
+      <c r="N11">
+        <v>0.4566333240289424</v>
+      </c>
+      <c r="O11">
+        <v>3.99388700557148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.061249084243371</v>
+        <v>0.4570429961538025</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2858977672308072</v>
+        <v>0.07368530080240987</v>
       </c>
       <c r="E12">
-        <v>0.8109410966106978</v>
+        <v>0.03150700935858985</v>
       </c>
       <c r="F12">
-        <v>8.713072102203341</v>
+        <v>5.057029180452389</v>
       </c>
       <c r="G12">
-        <v>0.0006350720845488434</v>
+        <v>0.0006658118204876677</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4907691567491739</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.645138681773972</v>
+        <v>5.419161271969642</v>
       </c>
       <c r="L12">
-        <v>2.163449721265977</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>2.246516561499419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4.045519372505098</v>
+      </c>
+      <c r="N12">
+        <v>0.4459384755621159</v>
+      </c>
+      <c r="O12">
+        <v>4.123857426763379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.055034897298384</v>
+        <v>0.4545432206848119</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.283624501906985</v>
+        <v>0.07309375877269986</v>
       </c>
       <c r="E13">
-        <v>0.8049902891885878</v>
+        <v>0.03136395776667023</v>
       </c>
       <c r="F13">
-        <v>8.648010182932467</v>
+        <v>5.022694289230884</v>
       </c>
       <c r="G13">
-        <v>0.0006362566211063986</v>
+        <v>0.0006665936535260535</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4892155603551771</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.598474863335213</v>
+        <v>5.385303291248249</v>
       </c>
       <c r="L13">
-        <v>2.147972499027233</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>2.231178285821983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4.019585220424517</v>
+      </c>
+      <c r="N13">
+        <v>0.4482265320508176</v>
+      </c>
+      <c r="O13">
+        <v>4.095674390597793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.034836846150625</v>
+        <v>0.4464042474253205</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2763233693874412</v>
+        <v>0.07119062442919244</v>
       </c>
       <c r="E14">
-        <v>0.785819587861333</v>
+        <v>0.03090810631631591</v>
       </c>
       <c r="F14">
-        <v>8.438365469213096</v>
+        <v>4.911585948583564</v>
       </c>
       <c r="G14">
-        <v>0.000640099196300378</v>
+        <v>0.0006691385788047398</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4843107384621703</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.447695782075925</v>
+        <v>5.275425193944784</v>
       </c>
       <c r="L14">
-        <v>2.097980746631293</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>2.181565224624208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3.935465602852474</v>
+      </c>
+      <c r="N14">
+        <v>0.4557466204422838</v>
+      </c>
+      <c r="O14">
+        <v>4.004494762770776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.022515129961334</v>
+        <v>0.441428918941412</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2719340998984308</v>
+        <v>0.0700442681185578</v>
       </c>
       <c r="E15">
-        <v>0.7742502461939154</v>
+        <v>0.03063688035814316</v>
       </c>
       <c r="F15">
-        <v>8.311822630383091</v>
+        <v>4.844174065938006</v>
       </c>
       <c r="G15">
-        <v>0.0006424380486194937</v>
+        <v>0.0006706939752590304</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4814264520959028</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.35637143598214</v>
+        <v>5.208523622748686</v>
       </c>
       <c r="L15">
-        <v>2.067715406244545</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>2.151477117961917</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3.884280442561618</v>
+      </c>
+      <c r="N15">
+        <v>0.4603970320389763</v>
+      </c>
+      <c r="O15">
+        <v>3.949189960058249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9526014508278422</v>
+        <v>0.4130622698220208</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2479192593880555</v>
+        <v>0.0637479110899406</v>
       </c>
       <c r="E16">
-        <v>0.7103023363848706</v>
+        <v>0.02919723426372123</v>
       </c>
       <c r="F16">
-        <v>7.612400372308201</v>
+        <v>4.466991372608476</v>
       </c>
       <c r="G16">
-        <v>0.0006556466336824015</v>
+        <v>0.0006795640890955301</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4665778051699547</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.847171542671759</v>
+        <v>4.830790661820117</v>
       </c>
       <c r="L16">
-        <v>1.899174243224152</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.983204884823422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3.595757918187502</v>
+      </c>
+      <c r="N16">
+        <v>0.4876991786691676</v>
+      </c>
+      <c r="O16">
+        <v>3.639974298410095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9102636452873867</v>
+        <v>0.3957806027882214</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2340769581707605</v>
+        <v>0.06010508553852389</v>
       </c>
       <c r="E17">
-        <v>0.6728829676515673</v>
+        <v>0.02840838420851632</v>
       </c>
       <c r="F17">
-        <v>7.203503340957695</v>
+        <v>4.242985271102867</v>
       </c>
       <c r="G17">
-        <v>0.0006636076264005191</v>
+        <v>0.0006849765898114297</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4588138535819724</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.545813839138134</v>
+        <v>4.603600699631642</v>
       </c>
       <c r="L17">
-        <v>1.799613639194277</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.883230188670296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3.422620310448664</v>
+      </c>
+      <c r="N17">
+        <v>0.5050059208354085</v>
+      </c>
+      <c r="O17">
+        <v>3.456518893839714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8860900113590162</v>
+        <v>0.3858815109731069</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2263987197625994</v>
+        <v>0.05808199711763251</v>
       </c>
       <c r="E18">
-        <v>0.651926761300075</v>
+        <v>0.02798640240841976</v>
       </c>
       <c r="F18">
-        <v>6.974757842015009</v>
+        <v>4.116578885212476</v>
       </c>
       <c r="G18">
-        <v>0.0006681453175183249</v>
+        <v>0.0006880825298077706</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4547886444535294</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.37597425443326</v>
+        <v>4.474409828162351</v>
       </c>
       <c r="L18">
-        <v>1.743570942226057</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.826766633755724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3.324302094245908</v>
+      </c>
+      <c r="N18">
+        <v>0.5151561793428812</v>
+      </c>
+      <c r="O18">
+        <v>3.353058024842028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8779336683886072</v>
+        <v>0.3825365653022459</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2238440486031692</v>
+        <v>0.05740866182193116</v>
       </c>
       <c r="E19">
-        <v>0.6449204320021238</v>
+        <v>0.02784872177707243</v>
       </c>
       <c r="F19">
-        <v>6.898333251663814</v>
+        <v>4.074173992736718</v>
       </c>
       <c r="G19">
-        <v>0.0006696755317286584</v>
+        <v>0.0006891332175858655</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4534968653905835</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.319022902220752</v>
+        <v>4.430906571815797</v>
       </c>
       <c r="L19">
-        <v>1.724790002956354</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.807814326930455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3.29121727319982</v>
+      </c>
+      <c r="N19">
+        <v>0.5186257141513693</v>
+      </c>
+      <c r="O19">
+        <v>3.318360867706588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9147516401781104</v>
+        <v>0.397615963461277</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2355202615850658</v>
+        <v>0.06048521971464282</v>
       </c>
       <c r="E20">
-        <v>0.6768056841669647</v>
+        <v>0.02848901101967449</v>
       </c>
       <c r="F20">
-        <v>7.24634448106741</v>
+        <v>4.266573101769353</v>
       </c>
       <c r="G20">
-        <v>0.0006627646601902182</v>
+        <v>0.0006844012375239495</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4595936443115107</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.577520905003297</v>
+        <v>4.627628083707776</v>
       </c>
       <c r="L20">
-        <v>1.810081720549178</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.893761872947749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3.440916832578537</v>
+      </c>
+      <c r="N20">
+        <v>0.5031431201614183</v>
+      </c>
+      <c r="O20">
+        <v>3.47583007743269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.040758862882825</v>
+        <v>0.4487927497114299</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2784502722472411</v>
+        <v>0.07174552424861247</v>
       </c>
       <c r="E21">
-        <v>0.7914135839515808</v>
+        <v>0.03104031464724244</v>
       </c>
       <c r="F21">
-        <v>8.499545774929288</v>
+        <v>4.944084786883082</v>
       </c>
       <c r="G21">
-        <v>0.0006389737161418488</v>
+        <v>0.0006683918143447703</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4857259694834539</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.49176378807411</v>
+        <v>5.307614011194346</v>
       </c>
       <c r="L21">
-        <v>2.112588884110721</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>2.196073776057631</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3.960101546733</v>
+      </c>
+      <c r="N21">
+        <v>0.4535285295157649</v>
+      </c>
+      <c r="O21">
+        <v>4.031161152985902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.125288248187076</v>
+        <v>0.4826792673357119</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3100957327580431</v>
+        <v>0.07994766247040275</v>
       </c>
       <c r="E22">
-        <v>0.8737954759744824</v>
+        <v>0.03305750664048546</v>
       </c>
       <c r="F22">
-        <v>9.399595972799318</v>
+        <v>5.414982165226547</v>
       </c>
       <c r="G22">
-        <v>0.0006227914297064912</v>
+        <v>0.0006577842879692022</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5080282196118588</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7.133921951977243</v>
+        <v>5.769499548674361</v>
       </c>
       <c r="L22">
-        <v>2.325709493162307</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>2.406701448938989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4.31423352531462</v>
+      </c>
+      <c r="N22">
+        <v>0.4230529550512543</v>
+      </c>
+      <c r="O22">
+        <v>4.41785671108866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.079939732045915</v>
+        <v>0.4645491504189891</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2928132483777688</v>
+        <v>0.07548164426948745</v>
       </c>
       <c r="E23">
-        <v>0.8289932602286996</v>
+        <v>0.03194519349701785</v>
       </c>
       <c r="F23">
-        <v>8.910386939640119</v>
+        <v>5.160726958719948</v>
       </c>
       <c r="G23">
-        <v>0.0006315022189095833</v>
+        <v>0.0006634634165573013</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4955696937236382</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.786288709840477</v>
+        <v>5.521145417518085</v>
       </c>
       <c r="L23">
-        <v>2.210280858304415</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>2.292864752564441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4.123673971077906</v>
+      </c>
+      <c r="N23">
+        <v>0.4391287588803152</v>
+      </c>
+      <c r="O23">
+        <v>4.208994089417871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9127221035538469</v>
+        <v>0.3967860844116018</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2348668825152203</v>
+        <v>0.06031314123618614</v>
       </c>
       <c r="E24">
-        <v>0.6750305131718761</v>
+        <v>0.02845246208890373</v>
       </c>
       <c r="F24">
-        <v>7.226956497419962</v>
+        <v>4.255901702629274</v>
       </c>
       <c r="G24">
-        <v>0.0006631458848080911</v>
+        <v>0.0006846613716177903</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4592397480513668</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.563175633647376</v>
+        <v>4.616760912303931</v>
       </c>
       <c r="L24">
-        <v>1.805345419348683</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.888997379184815</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3.432641208061526</v>
+      </c>
+      <c r="N24">
+        <v>0.503984670340472</v>
+      </c>
+      <c r="O24">
+        <v>3.467093285487792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7389944892603069</v>
+        <v>0.3252239979283189</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1829774588477591</v>
+        <v>0.04664852599984215</v>
       </c>
       <c r="E25">
-        <v>0.5301456345848692</v>
+        <v>0.02587549358496766</v>
       </c>
       <c r="F25">
-        <v>5.652192734473431</v>
+        <v>3.370930732482918</v>
       </c>
       <c r="G25">
-        <v>0.0006957589992512197</v>
+        <v>0.0007072785115080915</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4365834092612033</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.374488414050916</v>
+        <v>3.696536552387414</v>
       </c>
       <c r="L25">
-        <v>1.414257631261634</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.492223517689467</v>
+        <v>2.734488714697321</v>
+      </c>
+      <c r="N25">
+        <v>0.5813523445575441</v>
+      </c>
+      <c r="O25">
+        <v>2.743732136097009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2735086547924084</v>
+        <v>0.5793654039437683</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03813999106349542</v>
+        <v>0.08576625989938691</v>
       </c>
       <c r="E2">
-        <v>0.02473284774396234</v>
+        <v>0.1359697454569897</v>
       </c>
       <c r="F2">
-        <v>2.772370665897228</v>
+        <v>1.978942931388744</v>
       </c>
       <c r="G2">
-        <v>0.0007240366679194645</v>
+        <v>0.0007498061404022563</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4951129138725179</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2273247483513217</v>
       </c>
       <c r="K2">
-        <v>3.049737276032232</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.24709308751558</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6438339954970331</v>
+        <v>3.037635430282819</v>
       </c>
       <c r="O2">
-        <v>2.255912564477427</v>
+        <v>5.520773989079601</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2389266988997178</v>
+        <v>0.5052132088301562</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03306021560691619</v>
+        <v>0.08065975048865681</v>
       </c>
       <c r="E3">
-        <v>0.02432577599916108</v>
+        <v>0.1219785436180274</v>
       </c>
       <c r="F3">
-        <v>2.390288240869182</v>
+        <v>1.741874578264813</v>
       </c>
       <c r="G3">
-        <v>0.0007355801679585842</v>
+        <v>0.0007568237317984689</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4584487682843417</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2004213100205945</v>
       </c>
       <c r="K3">
-        <v>2.624274450252514</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.92813943867975</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6892740253769283</v>
+        <v>2.737299696658567</v>
       </c>
       <c r="O3">
-        <v>1.945213736011723</v>
+        <v>4.838802292291973</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.217882317915624</v>
+        <v>0.4595565776571675</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03020612505728337</v>
+        <v>0.07764057891411369</v>
       </c>
       <c r="E4">
-        <v>0.02422898968926468</v>
+        <v>0.1136147045423641</v>
       </c>
       <c r="F4">
-        <v>2.164776178174407</v>
+        <v>1.599611838403703</v>
       </c>
       <c r="G4">
-        <v>0.0007427921269105298</v>
+        <v>0.000761255900477545</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4362154386401045</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1842960733825265</v>
       </c>
       <c r="K4">
-        <v>2.367718565900901</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.736502576981351</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7186042343590415</v>
+        <v>2.5530864410552</v>
       </c>
       <c r="O4">
-        <v>1.762119947835018</v>
+        <v>4.429283052049982</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2093487211268013</v>
+        <v>0.4409186727191212</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02910027311207131</v>
+        <v>0.07643752594195519</v>
       </c>
       <c r="E5">
-        <v>0.02422440499062439</v>
+        <v>0.1102579329075439</v>
       </c>
       <c r="F5">
-        <v>2.074836736169615</v>
+        <v>1.542376418413639</v>
       </c>
       <c r="G5">
-        <v>0.0007457664540658105</v>
+        <v>0.0007630943179000801</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4272251559504312</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1778130880939059</v>
       </c>
       <c r="K5">
-        <v>2.26413271023192</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.659285817744362</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7309029997073111</v>
+        <v>2.478069448651979</v>
       </c>
       <c r="O5">
-        <v>1.689162599515299</v>
+        <v>4.264452688295307</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.207934120953098</v>
+        <v>0.4378218885599239</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0289198510563935</v>
+        <v>0.07623935360226142</v>
       </c>
       <c r="E6">
-        <v>0.02422564981763387</v>
+        <v>0.1097035056413063</v>
       </c>
       <c r="F6">
-        <v>2.0600118408924</v>
+        <v>1.532914542666902</v>
       </c>
       <c r="G6">
-        <v>0.0007462625892739867</v>
+        <v>0.0007634015699947875</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4257365520943779</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1767416198177401</v>
       </c>
       <c r="K6">
-        <v>2.246984744476947</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.646512146783493</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7329657674456271</v>
+        <v>2.465616123913208</v>
       </c>
       <c r="O6">
-        <v>1.677140610105184</v>
+        <v>4.237199325944744</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2177670669478147</v>
+        <v>0.4593053524216657</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03019099102890976</v>
+        <v>0.07762424611756558</v>
       </c>
       <c r="E7">
-        <v>0.02422879125819755</v>
+        <v>0.1135692321060375</v>
       </c>
       <c r="F7">
-        <v>2.163555696529357</v>
+        <v>1.598837069909848</v>
       </c>
       <c r="G7">
-        <v>0.0007428320912668636</v>
+        <v>0.0007612805616600734</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4360939092483918</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1842082981816162</v>
       </c>
       <c r="K7">
-        <v>2.366317936443977</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.735457876310932</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.718768713338509</v>
+        <v>2.552074523768425</v>
       </c>
       <c r="O7">
-        <v>1.761129658951475</v>
+        <v>4.427052118205268</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2615421605931942</v>
+        <v>0.5538236746775169</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03632743213348277</v>
+        <v>0.08398018891368508</v>
       </c>
       <c r="E8">
-        <v>0.02455836459420979</v>
+        <v>0.1310950688487189</v>
       </c>
       <c r="F8">
-        <v>2.638532608322123</v>
+        <v>1.896459714006767</v>
       </c>
       <c r="G8">
-        <v>0.0007279937579853233</v>
+        <v>0.000752200994248187</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4824132112798765</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2179599782117378</v>
       </c>
       <c r="K8">
-        <v>2.901928624240156</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.136130187985984</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6591966789466355</v>
+        <v>2.934040714684301</v>
       </c>
       <c r="O8">
-        <v>2.147013396948537</v>
+        <v>5.28355129880822</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3491575028095184</v>
+        <v>0.738206522640354</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05096662530495166</v>
+        <v>0.09746310262993063</v>
       </c>
       <c r="E9">
-        <v>0.02661061008150334</v>
+        <v>0.1675353365914489</v>
       </c>
       <c r="F9">
-        <v>3.659339029941435</v>
+        <v>2.510836012672996</v>
       </c>
       <c r="G9">
-        <v>0.000699661960085867</v>
+        <v>0.0007353123837499361</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5754683679897283</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2878080285792066</v>
       </c>
       <c r="K9">
-        <v>4.000770639183742</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.964716602810341</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5543827955082463</v>
+        <v>3.684562022066501</v>
       </c>
       <c r="O9">
-        <v>2.979209653128109</v>
+        <v>7.049484321021339</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4150400034915407</v>
+        <v>0.8731587267203054</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06417396084187743</v>
+        <v>0.1081394645469018</v>
       </c>
       <c r="E10">
-        <v>0.02929175345375334</v>
+        <v>0.1959945670818755</v>
       </c>
       <c r="F10">
-        <v>4.492901479078853</v>
+        <v>2.988080076194848</v>
       </c>
       <c r="G10">
-        <v>0.0006789452682113864</v>
+        <v>0.0007233668241470942</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.6452217692004893</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3421956624826947</v>
       </c>
       <c r="K10">
-        <v>4.856928419703905</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.615696361240055</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4857515417976259</v>
+        <v>4.236894622658752</v>
       </c>
       <c r="O10">
-        <v>3.661203069676588</v>
+        <v>8.420189421727173</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4454522250497774</v>
+        <v>0.9344599874916639</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0709702780624184</v>
+        <v>0.1132014926894769</v>
       </c>
       <c r="E11">
-        <v>0.03085577218675617</v>
+        <v>0.2094156318129663</v>
       </c>
       <c r="F11">
-        <v>4.898657126786418</v>
+        <v>3.212631996128295</v>
       </c>
       <c r="G11">
-        <v>0.0006694362141832499</v>
+        <v>0.0007180085467732798</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.6772639329326466</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3678194638589787</v>
       </c>
       <c r="K11">
-        <v>5.262608167001218</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.92565760068004</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4566333240289424</v>
+        <v>4.488382904391386</v>
       </c>
       <c r="O11">
-        <v>3.99388700557148</v>
+        <v>9.064965924582339</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4570429961538025</v>
+        <v>0.9576618370860501</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07368530080240987</v>
+        <v>0.1151514393177919</v>
       </c>
       <c r="E12">
-        <v>0.03150700935858985</v>
+        <v>0.2145764037657472</v>
       </c>
       <c r="F12">
-        <v>5.057029180452389</v>
+        <v>3.298910046315086</v>
       </c>
       <c r="G12">
-        <v>0.0006658118204876677</v>
+        <v>0.0007159881034907167</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.6894428311920606</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3776699852107726</v>
       </c>
       <c r="K12">
-        <v>5.419161271969642</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.045519372505098</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4459384755621159</v>
+        <v>4.583648715502136</v>
       </c>
       <c r="O12">
-        <v>4.123857426763379</v>
+        <v>9.312686875616009</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4545432206848119</v>
+        <v>0.9526653991394198</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07309375877269986</v>
+        <v>0.1147299517844047</v>
       </c>
       <c r="E13">
-        <v>0.03136395776667023</v>
+        <v>0.2134612708957775</v>
       </c>
       <c r="F13">
-        <v>5.022694289230884</v>
+        <v>3.280270141153892</v>
       </c>
       <c r="G13">
-        <v>0.0006665936535260535</v>
+        <v>0.0007164228981295651</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.6868178671705749</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3755415923832572</v>
       </c>
       <c r="K13">
-        <v>5.385303291248249</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.019585220424517</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4482265320508176</v>
+        <v>4.563130066384872</v>
       </c>
       <c r="O13">
-        <v>4.095674390597793</v>
+        <v>9.259168750958963</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4464042474253205</v>
+        <v>0.9363690428265841</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07119062442919244</v>
+        <v>0.1133612314575743</v>
       </c>
       <c r="E14">
-        <v>0.03090810631631591</v>
+        <v>0.2098385750749614</v>
       </c>
       <c r="F14">
-        <v>4.911585948583564</v>
+        <v>3.219704114662619</v>
       </c>
       <c r="G14">
-        <v>0.0006691385788047398</v>
+        <v>0.0007178421650553856</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.6782649886334937</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3686267927804465</v>
       </c>
       <c r="K14">
-        <v>5.275425193944784</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.935465602852474</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4557466204422838</v>
+        <v>4.496219825738592</v>
       </c>
       <c r="O14">
-        <v>4.004494762770776</v>
+        <v>9.085271643591739</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.441428918941412</v>
+        <v>0.9263855807035668</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0700442681185578</v>
+        <v>0.1125272693567254</v>
       </c>
       <c r="E15">
-        <v>0.03063688035814316</v>
+        <v>0.207630118487522</v>
       </c>
       <c r="F15">
-        <v>4.844174065938006</v>
+        <v>3.182773359589163</v>
       </c>
       <c r="G15">
-        <v>0.0006706939752590304</v>
+        <v>0.0007187125570341637</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.6730320097669278</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.364411117899536</v>
       </c>
       <c r="K15">
-        <v>5.208523622748686</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3.884280442561618</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4603970320389763</v>
+        <v>4.455239622433339</v>
       </c>
       <c r="O15">
-        <v>3.949189960058249</v>
+        <v>8.979234096696416</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4130622698220208</v>
+        <v>0.8691508517120496</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0637479110899406</v>
+        <v>0.1078130738615499</v>
       </c>
       <c r="E16">
-        <v>0.02919723426372123</v>
+        <v>0.1951278692833469</v>
       </c>
       <c r="F16">
-        <v>4.466991372608476</v>
+        <v>2.973569363332558</v>
       </c>
       <c r="G16">
-        <v>0.0006795640890955301</v>
+        <v>0.0007237183369606608</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.6431340378037191</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.340540534766447</v>
       </c>
       <c r="K16">
-        <v>4.830790661820117</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3.595757918187502</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4876991786691676</v>
+        <v>4.220463849171125</v>
       </c>
       <c r="O16">
-        <v>3.639974298410095</v>
+        <v>8.378520743813112</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3957806027882214</v>
+        <v>0.8340171836813681</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06010508553852389</v>
+        <v>0.1049760437550447</v>
       </c>
       <c r="E17">
-        <v>0.02840838420851632</v>
+        <v>0.1875866459848581</v>
       </c>
       <c r="F17">
-        <v>4.242985271102867</v>
+        <v>2.847254704356175</v>
       </c>
       <c r="G17">
-        <v>0.0006849765898114297</v>
+        <v>0.0007268071007934151</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6248725872898859</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.326136500202054</v>
       </c>
       <c r="K17">
-        <v>4.603600699631642</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3.422620310448664</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5050059208354085</v>
+        <v>4.076494888478607</v>
       </c>
       <c r="O17">
-        <v>3.456518893839714</v>
+        <v>8.015780684864751</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3858815109731069</v>
+        <v>0.8138007528256139</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05808199711763251</v>
+        <v>0.1033633474489832</v>
       </c>
       <c r="E18">
-        <v>0.02798640240841976</v>
+        <v>0.1832931440395029</v>
       </c>
       <c r="F18">
-        <v>4.116578885212476</v>
+        <v>2.775291589492582</v>
       </c>
       <c r="G18">
-        <v>0.0006880825298077706</v>
+        <v>0.0007285909641855381</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.6143983206426</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3179333893321399</v>
       </c>
       <c r="K18">
-        <v>4.474409828162351</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3.324302094245908</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5151561793428812</v>
+        <v>3.993709333444542</v>
       </c>
       <c r="O18">
-        <v>3.353058024842028</v>
+        <v>7.809107281374224</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3825365653022459</v>
+        <v>0.8069543263248988</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05740866182193116</v>
+        <v>0.1028204932595784</v>
       </c>
       <c r="E19">
-        <v>0.02784872177707243</v>
+        <v>0.1818467053693666</v>
       </c>
       <c r="F19">
-        <v>4.074173992736718</v>
+        <v>2.751039638791383</v>
       </c>
       <c r="G19">
-        <v>0.0006891332175858655</v>
+        <v>0.0007291962666071513</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.6108569212605843</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3151694092982922</v>
       </c>
       <c r="K19">
-        <v>4.430906571815797</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.29121727319982</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5186257141513693</v>
+        <v>3.965683291769608</v>
       </c>
       <c r="O19">
-        <v>3.318360867706588</v>
+        <v>7.739454382194197</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.397615963461277</v>
+        <v>0.8377580912796532</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06048521971464282</v>
+        <v>0.1052760505133321</v>
       </c>
       <c r="E20">
-        <v>0.02848901101967449</v>
+        <v>0.188384797088851</v>
       </c>
       <c r="F20">
-        <v>4.266573101769353</v>
+        <v>2.860628542161237</v>
       </c>
       <c r="G20">
-        <v>0.0006844012375239495</v>
+        <v>0.000726477557967141</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.6268135205769454</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3276612379046355</v>
       </c>
       <c r="K20">
-        <v>4.627628083707776</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3.440916832578537</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5031431201614183</v>
+        <v>4.091818400229073</v>
       </c>
       <c r="O20">
-        <v>3.47583007743269</v>
+        <v>8.054188154448866</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4487927497114299</v>
+        <v>0.9411559823935534</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07174552424861247</v>
+        <v>0.1137623300266455</v>
       </c>
       <c r="E21">
-        <v>0.03104031464724244</v>
+        <v>0.2109004301091844</v>
       </c>
       <c r="F21">
-        <v>4.944084786883082</v>
+        <v>3.237458537288376</v>
       </c>
       <c r="G21">
-        <v>0.0006683918143447703</v>
+        <v>0.0007174250776486035</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.6807759445216846</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3706536622629955</v>
       </c>
       <c r="K21">
-        <v>5.307614011194346</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3.960101546733</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4535285295157649</v>
+        <v>4.515872099351611</v>
       </c>
       <c r="O21">
-        <v>4.031161152985902</v>
+        <v>9.136248527455905</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4826792673357119</v>
+        <v>1.008665481205611</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07994766247040275</v>
+        <v>0.1195033031277006</v>
       </c>
       <c r="E22">
-        <v>0.03305750664048546</v>
+        <v>0.226079004786115</v>
       </c>
       <c r="F22">
-        <v>5.414982165226547</v>
+        <v>3.491093662348447</v>
       </c>
       <c r="G22">
-        <v>0.0006577842879692022</v>
+        <v>0.0007115577294594542</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.71630741384309</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3996219918742412</v>
       </c>
       <c r="K22">
-        <v>5.769499548674361</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4.31423352531462</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4230529550512543</v>
+        <v>4.793206235152695</v>
       </c>
       <c r="O22">
-        <v>4.41785671108866</v>
+        <v>9.864460275483566</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4645491504189891</v>
+        <v>0.9726400862103901</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07548164426948745</v>
+        <v>0.116420137804063</v>
       </c>
       <c r="E23">
-        <v>0.03194519349701785</v>
+        <v>0.2179317954575097</v>
       </c>
       <c r="F23">
-        <v>5.160726958719948</v>
+        <v>3.354987425575217</v>
       </c>
       <c r="G23">
-        <v>0.0006634634165573013</v>
+        <v>0.0007146855933123156</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6973192642933554</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3840739580264625</v>
       </c>
       <c r="K23">
-        <v>5.521145417518085</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.123673971077906</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4391287588803152</v>
+        <v>4.645170341327685</v>
       </c>
       <c r="O23">
-        <v>4.208994089417871</v>
+        <v>9.473692027688571</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3967860844116018</v>
+        <v>0.8360668819178159</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06031314123618614</v>
+        <v>0.1051403605639081</v>
       </c>
       <c r="E24">
-        <v>0.02845246208890373</v>
+        <v>0.1880238227616573</v>
       </c>
       <c r="F24">
-        <v>4.255901702629274</v>
+        <v>2.854580196936581</v>
       </c>
       <c r="G24">
-        <v>0.0006846613716177903</v>
+        <v>0.0007266265188549838</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.6259359484111684</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3269716626694787</v>
       </c>
       <c r="K24">
-        <v>4.616760912303931</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.432641208061526</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.503984670340472</v>
+        <v>4.084890690002226</v>
       </c>
       <c r="O24">
-        <v>3.467093285487792</v>
+        <v>8.03681834795151</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3252239979283189</v>
+        <v>0.6884222602582781</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04664852599984215</v>
+        <v>0.09369203427057471</v>
       </c>
       <c r="E25">
-        <v>0.02587549358496766</v>
+        <v>0.1574144629667877</v>
       </c>
       <c r="F25">
-        <v>3.370930732482918</v>
+        <v>2.340651936903257</v>
       </c>
       <c r="G25">
-        <v>0.0007072785115080915</v>
+        <v>0.000739792431025621</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5500536194376622</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2684393150567814</v>
       </c>
       <c r="K25">
-        <v>3.696536552387414</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.734488714697321</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5813523445575441</v>
+        <v>3.481366830696999</v>
       </c>
       <c r="O25">
-        <v>2.743732136097009</v>
+        <v>6.560516147654027</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5793654039437683</v>
+        <v>0.2159311196958242</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08576625989938691</v>
+        <v>0.1740869811143284</v>
       </c>
       <c r="E2">
-        <v>0.1359697454569897</v>
+        <v>0.1584551540436152</v>
       </c>
       <c r="F2">
-        <v>1.978942931388744</v>
+        <v>1.586058537684849</v>
       </c>
       <c r="G2">
-        <v>0.0007498061404022563</v>
+        <v>0.002415559989362569</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4951129138725179</v>
+        <v>0.3757315010515043</v>
       </c>
       <c r="J2">
-        <v>0.2273247483513217</v>
+        <v>0.1913305446093858</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.037635430282819</v>
+        <v>1.538965158849294</v>
       </c>
       <c r="O2">
-        <v>5.520773989079601</v>
+        <v>3.975293305671926</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5052132088301562</v>
+        <v>0.1913949238933697</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08065975048865681</v>
+        <v>0.1738283514950183</v>
       </c>
       <c r="E3">
-        <v>0.1219785436180274</v>
+        <v>0.1560976871575157</v>
       </c>
       <c r="F3">
-        <v>1.741874578264813</v>
+        <v>1.537274724656484</v>
       </c>
       <c r="G3">
-        <v>0.0007568237317984689</v>
+        <v>0.002420193372685223</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4584487682843417</v>
+        <v>0.3656238581545637</v>
       </c>
       <c r="J3">
-        <v>0.2004213100205945</v>
+        <v>0.1859881629284246</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.737299696658567</v>
+        <v>1.440536212657179</v>
       </c>
       <c r="O3">
-        <v>4.838802292291973</v>
+        <v>3.829925653828582</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4595565776571675</v>
+        <v>0.1762869034279646</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07764057891411369</v>
+        <v>0.1737352727050379</v>
       </c>
       <c r="E4">
-        <v>0.1136147045423641</v>
+        <v>0.1547365595057464</v>
       </c>
       <c r="F4">
-        <v>1.599611838403703</v>
+        <v>1.508292599236057</v>
       </c>
       <c r="G4">
-        <v>0.000761255900477545</v>
+        <v>0.002423190390540851</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4362154386401045</v>
+        <v>0.3596127975951688</v>
       </c>
       <c r="J4">
-        <v>0.1842960733825265</v>
+        <v>0.1828259976756428</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.5530864410552</v>
+        <v>1.380350891855613</v>
       </c>
       <c r="O4">
-        <v>4.429283052049982</v>
+        <v>3.743161388050623</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4409186727191212</v>
+        <v>0.1701201473106835</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07643752594195519</v>
+        <v>0.1737138821688973</v>
       </c>
       <c r="E5">
-        <v>0.1102579329075439</v>
+        <v>0.1542035670625133</v>
       </c>
       <c r="F5">
-        <v>1.542376418413639</v>
+        <v>1.496725533069323</v>
       </c>
       <c r="G5">
-        <v>0.0007630943179000801</v>
+        <v>0.002424450076845931</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4272251559504312</v>
+        <v>0.3572128864359954</v>
       </c>
       <c r="J5">
-        <v>0.1778130880939059</v>
+        <v>0.1815669644110329</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.478069448651979</v>
+        <v>1.355891405433653</v>
       </c>
       <c r="O5">
-        <v>4.264452688295307</v>
+        <v>3.708428181857073</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4378218885599239</v>
+        <v>0.1690955695415823</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07623935360226142</v>
+        <v>0.1737113296674551</v>
       </c>
       <c r="E6">
-        <v>0.1097035056413063</v>
+        <v>0.1541163722461825</v>
       </c>
       <c r="F6">
-        <v>1.532914542666902</v>
+        <v>1.494819505439395</v>
       </c>
       <c r="G6">
-        <v>0.0007634015699947875</v>
+        <v>0.002424661568431892</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4257365520943779</v>
+        <v>0.3568173988915788</v>
       </c>
       <c r="J6">
-        <v>0.1767416198177401</v>
+        <v>0.1813596857490793</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.465616123913208</v>
+        <v>1.351834048475041</v>
       </c>
       <c r="O6">
-        <v>4.237199325944744</v>
+        <v>3.702698365185597</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4593053524216657</v>
+        <v>0.1762037765295901</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07762424611756558</v>
+        <v>0.1737349172359117</v>
       </c>
       <c r="E7">
-        <v>0.1135692321060375</v>
+        <v>0.1547292836604051</v>
       </c>
       <c r="F7">
-        <v>1.598837069909848</v>
+        <v>1.508135617428664</v>
       </c>
       <c r="G7">
-        <v>0.0007612805616600734</v>
+        <v>0.002423207223543514</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4360939092483918</v>
+        <v>0.3595802297560198</v>
       </c>
       <c r="J7">
-        <v>0.1842082981816162</v>
+        <v>0.1828088983185268</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.552074523768425</v>
+        <v>1.38002074861987</v>
       </c>
       <c r="O7">
-        <v>4.427052118205268</v>
+        <v>3.742690441195975</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5538236746775169</v>
+        <v>0.2074802658001431</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08398018891368508</v>
+        <v>0.1739841729763967</v>
       </c>
       <c r="E8">
-        <v>0.1310950688487189</v>
+        <v>0.1576243489920373</v>
       </c>
       <c r="F8">
-        <v>1.896459714006767</v>
+        <v>1.569035736272298</v>
       </c>
       <c r="G8">
-        <v>0.000752200994248187</v>
+        <v>0.002417126089359947</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4824132112798765</v>
+        <v>0.3722062484302811</v>
       </c>
       <c r="J8">
-        <v>0.2179599782117378</v>
+        <v>0.1894639112100833</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.934040714684301</v>
+        <v>1.504976964632107</v>
       </c>
       <c r="O8">
-        <v>5.28355129880822</v>
+        <v>3.92465161631327</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.738206522640354</v>
+        <v>0.2684501888315936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09746310262993063</v>
+        <v>0.1749940350993739</v>
       </c>
       <c r="E9">
-        <v>0.1675353365914489</v>
+        <v>0.1639891454149733</v>
       </c>
       <c r="F9">
-        <v>2.510836012672996</v>
+        <v>1.696215314610981</v>
       </c>
       <c r="G9">
-        <v>0.0007353123837499361</v>
+        <v>0.002406401938415241</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5754683679897283</v>
+        <v>0.3984893586955494</v>
       </c>
       <c r="J9">
-        <v>0.2878080285792066</v>
+        <v>0.2034575054670285</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.684562022066501</v>
+        <v>1.751860150726543</v>
       </c>
       <c r="O9">
-        <v>7.049484321021339</v>
+        <v>4.301396925444635</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8731587267203054</v>
+        <v>0.3129948669844396</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1081394645469018</v>
+        <v>0.1760534290396052</v>
       </c>
       <c r="E10">
-        <v>0.1959945670818755</v>
+        <v>0.169088474725001</v>
       </c>
       <c r="F10">
-        <v>2.988080076194848</v>
+        <v>1.794459758914059</v>
       </c>
       <c r="G10">
-        <v>0.0007233668241470942</v>
+        <v>0.002399246738317698</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6452217692004893</v>
+        <v>0.4186982167615625</v>
       </c>
       <c r="J10">
-        <v>0.3421956624826947</v>
+        <v>0.2143235631693869</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.236894622658752</v>
+        <v>1.93419659562025</v>
       </c>
       <c r="O10">
-        <v>8.420189421727173</v>
+        <v>4.590573542432821</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9344599874916639</v>
+        <v>0.33319936175468</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1132014926894769</v>
+        <v>0.1766042903173286</v>
       </c>
       <c r="E11">
-        <v>0.2094156318129663</v>
+        <v>0.1715010782485393</v>
       </c>
       <c r="F11">
-        <v>3.212631996128295</v>
+        <v>1.840215008519493</v>
       </c>
       <c r="G11">
-        <v>0.0007180085467732798</v>
+        <v>0.002396147058881212</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6772639329326466</v>
+        <v>0.4280806917633839</v>
       </c>
       <c r="J11">
-        <v>0.3678194638589787</v>
+        <v>0.2193960977187146</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.488382904391386</v>
+        <v>2.017317443662478</v>
       </c>
       <c r="O11">
-        <v>9.064965924582339</v>
+        <v>4.724870106639514</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9576618370860501</v>
+        <v>0.3408412057247006</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1151514393177919</v>
+        <v>0.1768227941903859</v>
       </c>
       <c r="E12">
-        <v>0.2145764037657472</v>
+        <v>0.1724280870050521</v>
       </c>
       <c r="F12">
-        <v>3.298910046315086</v>
+        <v>1.857695457956879</v>
       </c>
       <c r="G12">
-        <v>0.0007159881034907167</v>
+        <v>0.00239499548138893</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6894428311920606</v>
+        <v>0.4316602591565939</v>
       </c>
       <c r="J12">
-        <v>0.3776699852107726</v>
+        <v>0.221335716487971</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.583648715502136</v>
+        <v>2.048815004509549</v>
       </c>
       <c r="O12">
-        <v>9.312686875616009</v>
+        <v>4.776123705914472</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9526653991394198</v>
+        <v>0.3391958157679937</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1147299517844047</v>
+        <v>0.1767752950894987</v>
       </c>
       <c r="E13">
-        <v>0.2134612708957775</v>
+        <v>0.1722278419399359</v>
       </c>
       <c r="F13">
-        <v>3.280270141153892</v>
+        <v>1.853923867927108</v>
       </c>
       <c r="G13">
-        <v>0.0007164228981295651</v>
+        <v>0.002395242508514029</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6868178671705749</v>
+        <v>0.4308881605543888</v>
       </c>
       <c r="J13">
-        <v>0.3755415923832572</v>
+        <v>0.2209171483289651</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.563130066384872</v>
+        <v>2.042030543333738</v>
       </c>
       <c r="O13">
-        <v>9.259168750958963</v>
+        <v>4.765067556405256</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9363690428265841</v>
+        <v>0.3338282482071406</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1133612314575743</v>
+        <v>0.1766220683052069</v>
       </c>
       <c r="E14">
-        <v>0.2098385750749614</v>
+        <v>0.1715770748056329</v>
       </c>
       <c r="F14">
-        <v>3.219704114662619</v>
+        <v>1.841650044738657</v>
       </c>
       <c r="G14">
-        <v>0.0007178421650553856</v>
+        <v>0.00239605187356056</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6782649886334937</v>
+        <v>0.4283746547068787</v>
       </c>
       <c r="J14">
-        <v>0.3686267927804465</v>
+        <v>0.2195552945535866</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.496219825738592</v>
+        <v>2.019908357050213</v>
       </c>
       <c r="O14">
-        <v>9.085271643591739</v>
+        <v>4.729078768254283</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9263855807035668</v>
+        <v>0.3305392456628908</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1125272693567254</v>
+        <v>0.1765295021117765</v>
       </c>
       <c r="E15">
-        <v>0.207630118487522</v>
+        <v>0.1711802087939134</v>
       </c>
       <c r="F15">
-        <v>3.182773359589163</v>
+        <v>1.834152050347342</v>
       </c>
       <c r="G15">
-        <v>0.0007187125570341637</v>
+        <v>0.002396550521006046</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6730320097669278</v>
+        <v>0.4268385096919047</v>
       </c>
       <c r="J15">
-        <v>0.364411117899536</v>
+        <v>0.2187235669912297</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.455239622433339</v>
+        <v>2.006360570313291</v>
       </c>
       <c r="O15">
-        <v>8.979234096696416</v>
+        <v>4.707086574762002</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8691508517120496</v>
+        <v>0.3116732098856971</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1078130738615499</v>
+        <v>0.1760188154244986</v>
       </c>
       <c r="E16">
-        <v>0.1951278692833469</v>
+        <v>0.1689326789279946</v>
       </c>
       <c r="F16">
-        <v>2.973569363332558</v>
+        <v>1.791491030024417</v>
       </c>
       <c r="G16">
-        <v>0.0007237183369606608</v>
+        <v>0.00239945242344497</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6431340378037191</v>
+        <v>0.4180888088535895</v>
       </c>
       <c r="J16">
-        <v>0.340540534766447</v>
+        <v>0.2139946788174569</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.220463849171125</v>
+        <v>1.928767661017872</v>
       </c>
       <c r="O16">
-        <v>8.378520743813112</v>
+        <v>4.581852524519547</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8340171836813681</v>
+        <v>0.3000838993125114</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1049760437550447</v>
+        <v>0.1757231760749818</v>
       </c>
       <c r="E17">
-        <v>0.1875866459848581</v>
+        <v>0.167577719709449</v>
       </c>
       <c r="F17">
-        <v>2.847254704356175</v>
+        <v>1.765592947740373</v>
       </c>
       <c r="G17">
-        <v>0.0007268071007934151</v>
+        <v>0.002401272324867566</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6248725872898859</v>
+        <v>0.4127692216154415</v>
       </c>
       <c r="J17">
-        <v>0.326136500202054</v>
+        <v>0.2111269263642015</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.076494888478607</v>
+        <v>1.88120914429345</v>
       </c>
       <c r="O17">
-        <v>8.015780684864751</v>
+        <v>4.505731717013816</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8138007528256139</v>
+        <v>0.2934125106850161</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1033633474489832</v>
+        <v>0.1755596213569888</v>
       </c>
       <c r="E18">
-        <v>0.1832931440395029</v>
+        <v>0.1668071234688995</v>
       </c>
       <c r="F18">
-        <v>2.775291589492582</v>
+        <v>1.750797082196556</v>
       </c>
       <c r="G18">
-        <v>0.0007285909641855381</v>
+        <v>0.002402333704617743</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6143983206426</v>
+        <v>0.4097273953840173</v>
       </c>
       <c r="J18">
-        <v>0.3179333893321399</v>
+        <v>0.2094896528478927</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.993709333444542</v>
+        <v>1.85387144156806</v>
       </c>
       <c r="O18">
-        <v>7.809107281374224</v>
+        <v>4.462207568522672</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8069543263248988</v>
+        <v>0.2911527646049308</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1028204932595784</v>
+        <v>0.1755053593357232</v>
       </c>
       <c r="E19">
-        <v>0.1818467053693666</v>
+        <v>0.166547712491564</v>
       </c>
       <c r="F19">
-        <v>2.751039638791383</v>
+        <v>1.745804605181775</v>
       </c>
       <c r="G19">
-        <v>0.0007291962666071513</v>
+        <v>0.00240269558458022</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6108569212605843</v>
+        <v>0.4087005711172083</v>
       </c>
       <c r="J19">
-        <v>0.3151694092982922</v>
+        <v>0.2089373882823509</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.965683291769608</v>
+        <v>1.844618345498787</v>
       </c>
       <c r="O19">
-        <v>7.739454382194197</v>
+        <v>4.447515346699447</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8377580912796532</v>
+        <v>0.3013181776851468</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1052760505133321</v>
+        <v>0.1757539758419355</v>
       </c>
       <c r="E20">
-        <v>0.188384797088851</v>
+        <v>0.167721052465474</v>
       </c>
       <c r="F20">
-        <v>2.860628542161237</v>
+        <v>1.768339483154278</v>
       </c>
       <c r="G20">
-        <v>0.000726477557967141</v>
+        <v>0.002401077080864969</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6268135205769454</v>
+        <v>0.4133336567293782</v>
       </c>
       <c r="J20">
-        <v>0.3276612379046355</v>
+        <v>0.2114309417489437</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.091818400229073</v>
+        <v>1.886270128093656</v>
       </c>
       <c r="O20">
-        <v>8.054188154448866</v>
+        <v>4.513808127811615</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9411559823935534</v>
+        <v>0.3354050867553156</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1137623300266455</v>
+        <v>0.1766668059812773</v>
       </c>
       <c r="E21">
-        <v>0.2109004301091844</v>
+        <v>0.1717678565883389</v>
       </c>
       <c r="F21">
-        <v>3.237458537288376</v>
+        <v>1.845250978317722</v>
       </c>
       <c r="G21">
-        <v>0.0007174250776486035</v>
+        <v>0.002395813541770542</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6807759445216846</v>
+        <v>0.429112214418673</v>
       </c>
       <c r="J21">
-        <v>0.3706536622629955</v>
+        <v>0.2199547937791095</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.515872099351611</v>
+        <v>2.026405625114307</v>
       </c>
       <c r="O21">
-        <v>9.136248527455905</v>
+        <v>4.739638709769963</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.008665481205611</v>
+        <v>0.3576291578720543</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1195033031277006</v>
+        <v>0.1773211216162025</v>
       </c>
       <c r="E22">
-        <v>0.226079004786115</v>
+        <v>0.1744908541518555</v>
       </c>
       <c r="F22">
-        <v>3.491093662348447</v>
+        <v>1.896414790630246</v>
       </c>
       <c r="G22">
-        <v>0.0007115577294594542</v>
+        <v>0.002392502880666877</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.71630741384309</v>
+        <v>0.4395793436413413</v>
       </c>
       <c r="J22">
-        <v>0.3996219918742412</v>
+        <v>0.225635036445496</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.793206235152695</v>
+        <v>2.118115898853375</v>
       </c>
       <c r="O22">
-        <v>9.864460275483566</v>
+        <v>4.889555756343043</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9726400862103901</v>
+        <v>0.3457728835225851</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.116420137804063</v>
+        <v>0.1769666215723475</v>
       </c>
       <c r="E23">
-        <v>0.2179317954575097</v>
+        <v>0.1730303690042234</v>
       </c>
       <c r="F23">
-        <v>3.354987425575217</v>
+        <v>1.869025219674057</v>
       </c>
       <c r="G23">
-        <v>0.0007146855933123156</v>
+        <v>0.002394258045721026</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6973192642933554</v>
+        <v>0.4339788619098002</v>
       </c>
       <c r="J23">
-        <v>0.3840739580264625</v>
+        <v>0.2225933271110279</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.645170341327685</v>
+        <v>2.069158297353965</v>
       </c>
       <c r="O23">
-        <v>9.473692027688571</v>
+        <v>4.809328534290898</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8360668819178159</v>
+        <v>0.3007601869820462</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1051403605639081</v>
+        <v>0.1757400312936568</v>
       </c>
       <c r="E24">
-        <v>0.1880238227616573</v>
+        <v>0.1676562256042899</v>
       </c>
       <c r="F24">
-        <v>2.854580196936581</v>
+        <v>1.76709748398801</v>
       </c>
       <c r="G24">
-        <v>0.0007266265188549838</v>
+        <v>0.002401165303691459</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6259359484111684</v>
+        <v>0.4130784242511751</v>
       </c>
       <c r="J24">
-        <v>0.3269716626694787</v>
+        <v>0.2112934607855692</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.084890690002226</v>
+        <v>1.883982043575344</v>
       </c>
       <c r="O24">
-        <v>8.03681834795151</v>
+        <v>4.510156039135268</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6884222602582781</v>
+        <v>0.2519980490933449</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09369203427057471</v>
+        <v>0.1746650798694702</v>
       </c>
       <c r="E25">
-        <v>0.1574144629667877</v>
+        <v>0.1621932848350376</v>
       </c>
       <c r="F25">
-        <v>2.340651936903257</v>
+        <v>1.660971659900625</v>
       </c>
       <c r="G25">
-        <v>0.000739792431025621</v>
+        <v>0.002409175396314761</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5500536194376622</v>
+        <v>0.3912191043998661</v>
       </c>
       <c r="J25">
-        <v>0.2684393150567814</v>
+        <v>0.1995698711105831</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.481366830696999</v>
+        <v>1.684892220676289</v>
       </c>
       <c r="O25">
-        <v>6.560516147654027</v>
+        <v>4.197320322167002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2159311196958242</v>
+        <v>0.5793654039439957</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1740869811143284</v>
+        <v>0.08576625989957165</v>
       </c>
       <c r="E2">
-        <v>0.1584551540436152</v>
+        <v>0.1359697454569542</v>
       </c>
       <c r="F2">
-        <v>1.586058537684849</v>
+        <v>1.978942931388744</v>
       </c>
       <c r="G2">
-        <v>0.002415559989362569</v>
+        <v>0.0007498061404486637</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3757315010515043</v>
+        <v>0.4951129138725179</v>
       </c>
       <c r="J2">
-        <v>0.1913305446093858</v>
+        <v>0.227324748351279</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.538965158849294</v>
+        <v>3.037635430282705</v>
       </c>
       <c r="O2">
-        <v>3.975293305671926</v>
+        <v>5.520773989079601</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1913949238933697</v>
+        <v>0.5052132088299288</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1738283514950183</v>
+        <v>0.0806597504887705</v>
       </c>
       <c r="E3">
-        <v>0.1560976871575157</v>
+        <v>0.12197854361807</v>
       </c>
       <c r="F3">
-        <v>1.537274724656484</v>
+        <v>1.741874578264785</v>
       </c>
       <c r="G3">
-        <v>0.002420193372685223</v>
+        <v>0.0007568237317566255</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3656238581545637</v>
+        <v>0.4584487682843417</v>
       </c>
       <c r="J3">
-        <v>0.1859881629284246</v>
+        <v>0.2004213100206087</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.440536212657179</v>
+        <v>2.737299696658539</v>
       </c>
       <c r="O3">
-        <v>3.829925653828582</v>
+        <v>4.83880229229203</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1762869034279646</v>
+        <v>0.4595565776571533</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1737352727050379</v>
+        <v>0.07764057891413501</v>
       </c>
       <c r="E4">
-        <v>0.1547365595057464</v>
+        <v>0.1136147045423748</v>
       </c>
       <c r="F4">
-        <v>1.508292599236057</v>
+        <v>1.599611838403689</v>
       </c>
       <c r="G4">
-        <v>0.002423190390540851</v>
+        <v>0.0007612559004358798</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3596127975951688</v>
+        <v>0.4362154386400974</v>
       </c>
       <c r="J4">
-        <v>0.1828259976756428</v>
+        <v>0.1842960733824839</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.380350891855613</v>
+        <v>2.5530864410552</v>
       </c>
       <c r="O4">
-        <v>3.743161388050623</v>
+        <v>4.429283052050039</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1701201473106835</v>
+        <v>0.4409186727193486</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1737138821688973</v>
+        <v>0.07643752594196229</v>
       </c>
       <c r="E5">
-        <v>0.1542035670625133</v>
+        <v>0.1102579329075475</v>
       </c>
       <c r="F5">
-        <v>1.496725533069323</v>
+        <v>1.542376418413639</v>
       </c>
       <c r="G5">
-        <v>0.002424450076845931</v>
+        <v>0.0007630943178720262</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3572128864359954</v>
+        <v>0.4272251559504028</v>
       </c>
       <c r="J5">
-        <v>0.1815669644110329</v>
+        <v>0.1778130880939628</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.355891405433653</v>
+        <v>2.478069448651866</v>
       </c>
       <c r="O5">
-        <v>3.708428181857073</v>
+        <v>4.26445268829525</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1690955695415823</v>
+        <v>0.4378218885601228</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1737113296674551</v>
+        <v>0.07623935360234668</v>
       </c>
       <c r="E6">
-        <v>0.1541163722461825</v>
+        <v>0.1097035056413063</v>
       </c>
       <c r="F6">
-        <v>1.494819505439395</v>
+        <v>1.532914542666916</v>
       </c>
       <c r="G6">
-        <v>0.002424661568431892</v>
+        <v>0.0007634015699945249</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3568173988915788</v>
+        <v>0.4257365520943779</v>
       </c>
       <c r="J6">
-        <v>0.1813596857490793</v>
+        <v>0.1767416198177898</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.351834048475041</v>
+        <v>2.465616123913208</v>
       </c>
       <c r="O6">
-        <v>3.702698365185597</v>
+        <v>4.237199325944687</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1762037765295901</v>
+        <v>0.459305352421552</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1737349172359117</v>
+        <v>0.0776242461174661</v>
       </c>
       <c r="E7">
-        <v>0.1547292836604051</v>
+        <v>0.1135692321060411</v>
       </c>
       <c r="F7">
-        <v>1.508135617428664</v>
+        <v>1.598837069909834</v>
       </c>
       <c r="G7">
-        <v>0.002423207223543514</v>
+        <v>0.0007612805617307934</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3595802297560198</v>
+        <v>0.4360939092484273</v>
       </c>
       <c r="J7">
-        <v>0.1828088983185268</v>
+        <v>0.1842082981815167</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.38002074861987</v>
+        <v>2.552074523768539</v>
       </c>
       <c r="O7">
-        <v>3.742690441195975</v>
+        <v>4.427052118205211</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2074802658001431</v>
+        <v>0.5538236746774885</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1739841729763967</v>
+        <v>0.08398018891359271</v>
       </c>
       <c r="E8">
-        <v>0.1576243489920373</v>
+        <v>0.1310950688486869</v>
       </c>
       <c r="F8">
-        <v>1.569035736272298</v>
+        <v>1.896459714006781</v>
       </c>
       <c r="G8">
-        <v>0.002417126089359947</v>
+        <v>0.000752200994292896</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3722062484302811</v>
+        <v>0.4824132112798409</v>
       </c>
       <c r="J8">
-        <v>0.1894639112100833</v>
+        <v>0.2179599782116668</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.504976964632107</v>
+        <v>2.934040714684301</v>
       </c>
       <c r="O8">
-        <v>3.92465161631327</v>
+        <v>5.28355129880822</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2684501888315936</v>
+        <v>0.7382065226404109</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1749940350993739</v>
+        <v>0.09746310263005142</v>
       </c>
       <c r="E9">
-        <v>0.1639891454149733</v>
+        <v>0.1675353365914418</v>
       </c>
       <c r="F9">
-        <v>1.696215314610981</v>
+        <v>2.510836012672996</v>
       </c>
       <c r="G9">
-        <v>0.002406401938415241</v>
+        <v>0.0007353123837509915</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3984893586955494</v>
+        <v>0.5754683679897283</v>
       </c>
       <c r="J9">
-        <v>0.2034575054670285</v>
+        <v>0.2878080285791071</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.751860150726543</v>
+        <v>3.684562022066473</v>
       </c>
       <c r="O9">
-        <v>4.301396925444635</v>
+        <v>7.049484321021396</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3129948669844396</v>
+        <v>0.8731587267201348</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1760534290396052</v>
+        <v>0.1081394645472429</v>
       </c>
       <c r="E10">
-        <v>0.169088474725001</v>
+        <v>0.1959945670818684</v>
       </c>
       <c r="F10">
-        <v>1.794459758914059</v>
+        <v>2.988080076194848</v>
       </c>
       <c r="G10">
-        <v>0.002399246738317698</v>
+        <v>0.0007233668241480934</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4186982167615625</v>
+        <v>0.6452217692004893</v>
       </c>
       <c r="J10">
-        <v>0.2143235631693869</v>
+        <v>0.3421956624826805</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.93419659562025</v>
+        <v>4.23689462265861</v>
       </c>
       <c r="O10">
-        <v>4.590573542432821</v>
+        <v>8.420189421727173</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.33319936175468</v>
+        <v>0.9344599874919197</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1766042903173286</v>
+        <v>0.1132014926893561</v>
       </c>
       <c r="E11">
-        <v>0.1715010782485393</v>
+        <v>0.2094156318129379</v>
       </c>
       <c r="F11">
-        <v>1.840215008519493</v>
+        <v>3.212631996128295</v>
       </c>
       <c r="G11">
-        <v>0.002396147058881212</v>
+        <v>0.0007180085468848817</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4280806917633839</v>
+        <v>0.6772639329326395</v>
       </c>
       <c r="J11">
-        <v>0.2193960977187146</v>
+        <v>0.3678194638589787</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.017317443662478</v>
+        <v>4.488382904391415</v>
       </c>
       <c r="O11">
-        <v>4.724870106639514</v>
+        <v>9.064965924582339</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3408412057247006</v>
+        <v>0.9576618370860217</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1768227941903859</v>
+        <v>0.1151514393178061</v>
       </c>
       <c r="E12">
-        <v>0.1724280870050521</v>
+        <v>0.2145764037657827</v>
       </c>
       <c r="F12">
-        <v>1.857695457956879</v>
+        <v>3.298910046315086</v>
       </c>
       <c r="G12">
-        <v>0.00239499548138893</v>
+        <v>0.0007159881034908278</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4316602591565939</v>
+        <v>0.6894428311920322</v>
       </c>
       <c r="J12">
-        <v>0.221335716487971</v>
+        <v>0.3776699852107726</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.048815004509549</v>
+        <v>4.583648715502079</v>
       </c>
       <c r="O12">
-        <v>4.776123705914472</v>
+        <v>9.312686875616009</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3391958157679937</v>
+        <v>0.952665399139164</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1767752950894987</v>
+        <v>0.1147299517845184</v>
       </c>
       <c r="E13">
-        <v>0.1722278419399359</v>
+        <v>0.2134612708958343</v>
       </c>
       <c r="F13">
-        <v>1.853923867927108</v>
+        <v>3.280270141153892</v>
       </c>
       <c r="G13">
-        <v>0.002395242508514029</v>
+        <v>0.0007164228981293415</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4308881605543888</v>
+        <v>0.6868178671705749</v>
       </c>
       <c r="J13">
-        <v>0.2209171483289651</v>
+        <v>0.3755415923831293</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.042030543333738</v>
+        <v>4.563130066384986</v>
       </c>
       <c r="O13">
-        <v>4.765067556405256</v>
+        <v>9.259168750958963</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3338282482071406</v>
+        <v>0.9363690428266409</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1766220683052069</v>
+        <v>0.1133612314575743</v>
       </c>
       <c r="E14">
-        <v>0.1715770748056329</v>
+        <v>0.2098385750749756</v>
       </c>
       <c r="F14">
-        <v>1.841650044738657</v>
+        <v>3.219704114662619</v>
       </c>
       <c r="G14">
-        <v>0.00239605187356056</v>
+        <v>0.0007178421651131303</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4283746547068787</v>
+        <v>0.6782649886334937</v>
       </c>
       <c r="J14">
-        <v>0.2195552945535866</v>
+        <v>0.3686267927804607</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.019908357050213</v>
+        <v>4.496219825738649</v>
       </c>
       <c r="O14">
-        <v>4.729078768254283</v>
+        <v>9.085271643591739</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3305392456628908</v>
+        <v>0.9263855807037942</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1765295021117765</v>
+        <v>0.1125272693568533</v>
       </c>
       <c r="E15">
-        <v>0.1711802087939134</v>
+        <v>0.207630118487522</v>
       </c>
       <c r="F15">
-        <v>1.834152050347342</v>
+        <v>3.182773359589191</v>
       </c>
       <c r="G15">
-        <v>0.002396550521006046</v>
+        <v>0.0007187125570935986</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4268385096919047</v>
+        <v>0.6730320097669491</v>
       </c>
       <c r="J15">
-        <v>0.2187235669912297</v>
+        <v>0.364411117899536</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.006360570313291</v>
+        <v>4.455239622433453</v>
       </c>
       <c r="O15">
-        <v>4.707086574762002</v>
+        <v>8.979234096696359</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3116732098856971</v>
+        <v>0.8691508517120781</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1760188154244986</v>
+        <v>0.107813073861557</v>
       </c>
       <c r="E16">
-        <v>0.1689326789279946</v>
+        <v>0.1951278692833114</v>
       </c>
       <c r="F16">
-        <v>1.791491030024417</v>
+        <v>2.97356936333253</v>
       </c>
       <c r="G16">
-        <v>0.00239945242344497</v>
+        <v>0.0007237183369611276</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4180888088535895</v>
+        <v>0.6431340378037191</v>
       </c>
       <c r="J16">
-        <v>0.2139946788174569</v>
+        <v>0.3405405347663475</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.928767661017872</v>
+        <v>4.220463849171153</v>
       </c>
       <c r="O16">
-        <v>4.581852524519547</v>
+        <v>8.378520743813056</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3000838993125114</v>
+        <v>0.8340171836813681</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1757231760749818</v>
+        <v>0.104976043754931</v>
       </c>
       <c r="E17">
-        <v>0.167577719709449</v>
+        <v>0.1875866459848439</v>
       </c>
       <c r="F17">
-        <v>1.765592947740373</v>
+        <v>2.847254704356175</v>
       </c>
       <c r="G17">
-        <v>0.002401272324867566</v>
+        <v>0.0007268071006840783</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4127692216154415</v>
+        <v>0.6248725872898859</v>
       </c>
       <c r="J17">
-        <v>0.2111269263642015</v>
+        <v>0.3261365002021819</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.88120914429345</v>
+        <v>4.076494888478578</v>
       </c>
       <c r="O17">
-        <v>4.505731717013816</v>
+        <v>8.015780684864751</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2934125106850161</v>
+        <v>0.8138007528255002</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1755596213569888</v>
+        <v>0.1033633474489903</v>
       </c>
       <c r="E18">
-        <v>0.1668071234688995</v>
+        <v>0.1832931440395313</v>
       </c>
       <c r="F18">
-        <v>1.750797082196556</v>
+        <v>2.77529158949261</v>
       </c>
       <c r="G18">
-        <v>0.002402333704617743</v>
+        <v>0.0007285909642391866</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4097273953840173</v>
+        <v>0.6143983206426071</v>
       </c>
       <c r="J18">
-        <v>0.2094896528478927</v>
+        <v>0.317933389332083</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.85387144156806</v>
+        <v>3.993709333444542</v>
       </c>
       <c r="O18">
-        <v>4.462207568522672</v>
+        <v>7.809107281374224</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2911527646049308</v>
+        <v>0.8069543263250978</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1755053593357232</v>
+        <v>0.102820493259479</v>
       </c>
       <c r="E19">
-        <v>0.166547712491564</v>
+        <v>0.1818467053693524</v>
       </c>
       <c r="F19">
-        <v>1.745804605181775</v>
+        <v>2.751039638791383</v>
       </c>
       <c r="G19">
-        <v>0.00240269558458022</v>
+        <v>0.0007291962665544157</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4087005711172083</v>
+        <v>0.6108569212605985</v>
       </c>
       <c r="J19">
-        <v>0.2089373882823509</v>
+        <v>0.3151694092984201</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.844618345498787</v>
+        <v>3.965683291769437</v>
       </c>
       <c r="O19">
-        <v>4.447515346699447</v>
+        <v>7.739454382194197</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3013181776851468</v>
+        <v>0.8377580912796532</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1757539758419355</v>
+        <v>0.1052760505135453</v>
       </c>
       <c r="E20">
-        <v>0.167721052465474</v>
+        <v>0.188384797088851</v>
       </c>
       <c r="F20">
-        <v>1.768339483154278</v>
+        <v>2.860628542161294</v>
       </c>
       <c r="G20">
-        <v>0.002401077080864969</v>
+        <v>0.0007264775579663985</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4133336567293782</v>
+        <v>0.6268135205769454</v>
       </c>
       <c r="J20">
-        <v>0.2114309417489437</v>
+        <v>0.3276612379046497</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.886270128093656</v>
+        <v>4.091818400228959</v>
       </c>
       <c r="O20">
-        <v>4.513808127811615</v>
+        <v>8.054188154448923</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3354050867553156</v>
+        <v>0.9411559823938092</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1766668059812773</v>
+        <v>0.1137623300267521</v>
       </c>
       <c r="E21">
-        <v>0.1717678565883389</v>
+        <v>0.2109004301091844</v>
       </c>
       <c r="F21">
-        <v>1.845250978317722</v>
+        <v>3.237458537288376</v>
       </c>
       <c r="G21">
-        <v>0.002395813541770542</v>
+        <v>0.0007174250776484651</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.429112214418673</v>
+        <v>0.680775944521713</v>
       </c>
       <c r="J21">
-        <v>0.2199547937791095</v>
+        <v>0.3706536622629955</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.026405625114307</v>
+        <v>4.515872099351498</v>
       </c>
       <c r="O21">
-        <v>4.739638709769963</v>
+        <v>9.136248527455791</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3576291578720543</v>
+        <v>1.008665481205611</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1773211216162025</v>
+        <v>0.1195033031278285</v>
       </c>
       <c r="E22">
-        <v>0.1744908541518555</v>
+        <v>0.226079004786115</v>
       </c>
       <c r="F22">
-        <v>1.896414790630246</v>
+        <v>3.491093662348447</v>
       </c>
       <c r="G22">
-        <v>0.002392502880666877</v>
+        <v>0.0007115577295728945</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4395793436413413</v>
+        <v>0.71630741384309</v>
       </c>
       <c r="J22">
-        <v>0.225635036445496</v>
+        <v>0.3996219918740707</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.118115898853375</v>
+        <v>4.793206235152695</v>
       </c>
       <c r="O22">
-        <v>4.889555756343043</v>
+        <v>9.864460275483566</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3457728835225851</v>
+        <v>0.9726400862101627</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1769666215723475</v>
+        <v>0.1164201378040772</v>
       </c>
       <c r="E23">
-        <v>0.1730303690042234</v>
+        <v>0.2179317954575097</v>
       </c>
       <c r="F23">
-        <v>1.869025219674057</v>
+        <v>3.354987425575189</v>
       </c>
       <c r="G23">
-        <v>0.002394258045721026</v>
+        <v>0.0007146855933130927</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4339788619098002</v>
+        <v>0.6973192642933483</v>
       </c>
       <c r="J23">
-        <v>0.2225933271110279</v>
+        <v>0.3840739580264625</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.069158297353965</v>
+        <v>4.645170341327685</v>
       </c>
       <c r="O23">
-        <v>4.809328534290898</v>
+        <v>9.473692027688514</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3007601869820462</v>
+        <v>0.8360668819178159</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1757400312936568</v>
+        <v>0.1051403605640147</v>
       </c>
       <c r="E24">
-        <v>0.1676562256042899</v>
+        <v>0.1880238227616005</v>
       </c>
       <c r="F24">
-        <v>1.76709748398801</v>
+        <v>2.85458019693661</v>
       </c>
       <c r="G24">
-        <v>0.002401165303691459</v>
+        <v>0.0007266265188539123</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4130784242511751</v>
+        <v>0.6259359484111684</v>
       </c>
       <c r="J24">
-        <v>0.2112934607855692</v>
+        <v>0.3269716626695356</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.883982043575344</v>
+        <v>4.084890690002226</v>
       </c>
       <c r="O24">
-        <v>4.510156039135268</v>
+        <v>8.036818347951566</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2519980490933449</v>
+        <v>0.6884222602582497</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1746650798694702</v>
+        <v>0.09369203427059603</v>
       </c>
       <c r="E25">
-        <v>0.1621932848350376</v>
+        <v>0.1574144629667309</v>
       </c>
       <c r="F25">
-        <v>1.660971659900625</v>
+        <v>2.340651936903285</v>
       </c>
       <c r="G25">
-        <v>0.002409175396314761</v>
+        <v>0.000739792430970059</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3912191043998661</v>
+        <v>0.5500536194376551</v>
       </c>
       <c r="J25">
-        <v>0.1995698711105831</v>
+        <v>0.2684393150567246</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.684892220676289</v>
+        <v>3.481366830697027</v>
       </c>
       <c r="O25">
-        <v>4.197320322167002</v>
+        <v>6.560516147654027</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5793654039439957</v>
+        <v>0.2333631772716984</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08576625989957165</v>
+        <v>0.06171857706391393</v>
       </c>
       <c r="E2">
-        <v>0.1359697454569542</v>
+        <v>0.3707356455717843</v>
       </c>
       <c r="F2">
-        <v>1.978942931388744</v>
+        <v>0.3818681980556349</v>
       </c>
       <c r="G2">
-        <v>0.0007498061404486637</v>
+        <v>0.2748353089727118</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001849380495175801</v>
       </c>
       <c r="I2">
-        <v>0.4951129138725179</v>
+        <v>0.003340329808892317</v>
       </c>
       <c r="J2">
-        <v>0.227324748351279</v>
+        <v>0.2290666985295147</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2430588329822676</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.522737353678338</v>
       </c>
       <c r="N2">
-        <v>3.037635430282705</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.520773989079601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6934471179257571</v>
+      </c>
+      <c r="P2">
+        <v>0.7848926572311221</v>
+      </c>
+      <c r="Q2">
+        <v>1.012367993153845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5052132088299288</v>
+        <v>0.2033983834662791</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0806597504887705</v>
+        <v>0.05429080080849502</v>
       </c>
       <c r="E3">
-        <v>0.12197854361807</v>
+        <v>0.3318418911457215</v>
       </c>
       <c r="F3">
-        <v>1.741874578264785</v>
+        <v>0.351948365444116</v>
       </c>
       <c r="G3">
-        <v>0.0007568237317566255</v>
+        <v>0.253665304396911</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0009384969400363374</v>
       </c>
       <c r="I3">
-        <v>0.4584487682843417</v>
+        <v>0.004060576273980487</v>
       </c>
       <c r="J3">
-        <v>0.2004213100206087</v>
+        <v>0.2229825600830466</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2511511632032271</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.34357869262368</v>
       </c>
       <c r="N3">
-        <v>2.737299696658539</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.83880229229203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6040480262206813</v>
+      </c>
+      <c r="P3">
+        <v>0.8019642132630729</v>
+      </c>
+      <c r="Q3">
+        <v>0.9544835083769811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4595565776571533</v>
+        <v>0.1845852826959486</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07764057891413501</v>
+        <v>0.04972888177651669</v>
       </c>
       <c r="E4">
-        <v>0.1136147045423748</v>
+        <v>0.3078740453308555</v>
       </c>
       <c r="F4">
-        <v>1.599611838403689</v>
+        <v>0.3339829853485554</v>
       </c>
       <c r="G4">
-        <v>0.0007612559004358798</v>
+        <v>0.2409873713470461</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0005179370762686819</v>
       </c>
       <c r="I4">
-        <v>0.4362154386400974</v>
+        <v>0.004592431094281757</v>
       </c>
       <c r="J4">
-        <v>0.1842960733824839</v>
+        <v>0.2194773624886821</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.256285953833677</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.233749741836846</v>
       </c>
       <c r="N4">
-        <v>2.5530864410552</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4.429283052050039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5492334422959502</v>
+      </c>
+      <c r="P4">
+        <v>0.8130484018542923</v>
+      </c>
+      <c r="Q4">
+        <v>0.920096939857828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4409186727193486</v>
+        <v>0.1759300038193032</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07643752594196229</v>
+        <v>0.04789559287520717</v>
       </c>
       <c r="E5">
-        <v>0.1102579329075475</v>
+        <v>0.2979709428429871</v>
       </c>
       <c r="F5">
-        <v>1.542376418413639</v>
+        <v>0.326570956409526</v>
       </c>
       <c r="G5">
-        <v>0.0007630943178720262</v>
+        <v>0.2357110994524589</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0003792165749940679</v>
       </c>
       <c r="I5">
-        <v>0.4272251559504028</v>
+        <v>0.004910343287263697</v>
       </c>
       <c r="J5">
-        <v>0.1778130880939628</v>
+        <v>0.2180062928713014</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.258278886009049</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.190127641576595</v>
       </c>
       <c r="N5">
-        <v>2.478069448651866</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>4.26445268829525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5271315352876158</v>
+      </c>
+      <c r="P5">
+        <v>0.8178844147952589</v>
+      </c>
+      <c r="Q5">
+        <v>0.9057599294080632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4378218885601228</v>
+        <v>0.1734034958992652</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07623935360234668</v>
+        <v>0.04762352638329048</v>
       </c>
       <c r="E6">
-        <v>0.1097035056413063</v>
+        <v>0.2961883958122797</v>
       </c>
       <c r="F6">
-        <v>1.532914542666916</v>
+        <v>0.3251173355264285</v>
       </c>
       <c r="G6">
-        <v>0.0007634015699945249</v>
+        <v>0.2346129483972916</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0003579579857362347</v>
       </c>
       <c r="I6">
-        <v>0.4257365520943779</v>
+        <v>0.00506863019444026</v>
       </c>
       <c r="J6">
-        <v>0.1767416198177898</v>
+        <v>0.2176450984769929</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2584425613873567</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.184234957578866</v>
       </c>
       <c r="N6">
-        <v>2.465616123913208</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>4.237199325944687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5237333696537476</v>
+      </c>
+      <c r="P6">
+        <v>0.818908926633938</v>
+      </c>
+      <c r="Q6">
+        <v>0.9026636794039575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.459305352421552</v>
+        <v>0.1814969411777412</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0776242461174661</v>
+        <v>0.04979292044912143</v>
       </c>
       <c r="E7">
-        <v>0.1135692321060411</v>
+        <v>0.3073672395144555</v>
       </c>
       <c r="F7">
-        <v>1.598837069909834</v>
+        <v>0.3332590273329146</v>
       </c>
       <c r="G7">
-        <v>0.0007612805617307934</v>
+        <v>0.2402978856466547</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0005154651832612878</v>
       </c>
       <c r="I7">
-        <v>0.4360939092484273</v>
+        <v>0.004865843288800242</v>
       </c>
       <c r="J7">
-        <v>0.1842082981815167</v>
+        <v>0.2191296918581003</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2558527625710094</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.236856040474805</v>
       </c>
       <c r="N7">
-        <v>2.552074523768539</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>4.427052118205211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5496774272649319</v>
+      </c>
+      <c r="P7">
+        <v>0.8137100943836266</v>
+      </c>
+      <c r="Q7">
+        <v>0.9179064371491137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5538236746774885</v>
+        <v>0.2191490641026093</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08398018891359271</v>
+        <v>0.05927604441266965</v>
       </c>
       <c r="E8">
-        <v>0.1310950688486869</v>
+        <v>0.3568465229083699</v>
       </c>
       <c r="F8">
-        <v>1.896459714006781</v>
+        <v>0.3706405941503945</v>
       </c>
       <c r="G8">
-        <v>0.000752200994292896</v>
+        <v>0.266650350680905</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.00150428713709716</v>
       </c>
       <c r="I8">
-        <v>0.4824132112798409</v>
+        <v>0.003896456121267988</v>
       </c>
       <c r="J8">
-        <v>0.2179599782116668</v>
+        <v>0.2264893349550547</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2452306673973901</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.465856341187276</v>
       </c>
       <c r="N8">
-        <v>2.934040714684301</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>5.28355129880822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6635921485140486</v>
+      </c>
+      <c r="P8">
+        <v>0.7915172326577284</v>
+      </c>
+      <c r="Q8">
+        <v>0.9895297566000352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7382065226404109</v>
+        <v>0.2949414884707693</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09746310263005142</v>
+        <v>0.07772194410504341</v>
       </c>
       <c r="E9">
-        <v>0.1675353365914418</v>
+        <v>0.4539780738243593</v>
       </c>
       <c r="F9">
-        <v>2.510836012672996</v>
+        <v>0.4485732506608784</v>
       </c>
       <c r="G9">
-        <v>0.0007353123837509915</v>
+        <v>0.32223146769023</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.004643295726586394</v>
       </c>
       <c r="I9">
-        <v>0.5754683679897283</v>
+        <v>0.002319986820434217</v>
       </c>
       <c r="J9">
-        <v>0.2878080285791071</v>
+        <v>0.2434431825352164</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.226529521235006</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.910153637529447</v>
       </c>
       <c r="N9">
-        <v>3.684562022066473</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>7.049484321021396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8865037704805658</v>
+      </c>
+      <c r="P9">
+        <v>0.7517581418440784</v>
+      </c>
+      <c r="Q9">
+        <v>1.143480629508986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8731587267201348</v>
+        <v>0.3482884897785254</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1081394645472429</v>
+        <v>0.09218680698643311</v>
       </c>
       <c r="E10">
-        <v>0.1959945670818684</v>
+        <v>0.4938290097146876</v>
       </c>
       <c r="F10">
-        <v>2.988080076194848</v>
+        <v>0.5028936948355209</v>
       </c>
       <c r="G10">
-        <v>0.0007233668241480934</v>
+        <v>0.3596964542740153</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.007663065423965776</v>
       </c>
       <c r="I10">
-        <v>0.6452217692004893</v>
+        <v>0.001800593300419706</v>
       </c>
       <c r="J10">
-        <v>0.3421956624826805</v>
+        <v>0.254534885716339</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2128742753416324</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.239572368160253</v>
       </c>
       <c r="N10">
-        <v>4.23689462265861</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>8.420189421727173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.01706269307283</v>
+      </c>
+      <c r="P10">
+        <v>0.7295142448763556</v>
+      </c>
+      <c r="Q10">
+        <v>1.246547728479499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9344599874919197</v>
+        <v>0.3800042241123265</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1132014926893561</v>
+        <v>0.106483362697162</v>
       </c>
       <c r="E11">
-        <v>0.2094156318129379</v>
+        <v>0.2842008791773623</v>
       </c>
       <c r="F11">
-        <v>3.212631996128295</v>
+        <v>0.4822584503107734</v>
       </c>
       <c r="G11">
-        <v>0.0007180085468848817</v>
+        <v>0.3322663341564578</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02514768314417992</v>
       </c>
       <c r="I11">
-        <v>0.6772639329326395</v>
+        <v>0.002177119598192334</v>
       </c>
       <c r="J11">
-        <v>0.3678194638589787</v>
+        <v>0.2374567283984845</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2021562702961199</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.388991065467991</v>
       </c>
       <c r="N11">
-        <v>4.488382904391415</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>9.064965924582339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7970829894446538</v>
+      </c>
+      <c r="P11">
+        <v>0.7547140654118536</v>
+      </c>
+      <c r="Q11">
+        <v>1.15279139819603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9576618370860217</v>
+        <v>0.4012408963726273</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1151514393178061</v>
+        <v>0.1157792831606201</v>
       </c>
       <c r="E12">
-        <v>0.2145764037657827</v>
+        <v>0.1574627841904963</v>
       </c>
       <c r="F12">
-        <v>3.298910046315086</v>
+        <v>0.4543103182040866</v>
       </c>
       <c r="G12">
-        <v>0.0007159881034908278</v>
+        <v>0.3028189776788821</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06286141930750233</v>
       </c>
       <c r="I12">
-        <v>0.6894428311920322</v>
+        <v>0.002134038155611861</v>
       </c>
       <c r="J12">
-        <v>0.3776699852107726</v>
+        <v>0.2213083768251636</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1974136215854627</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.439548607087517</v>
       </c>
       <c r="N12">
-        <v>4.583648715502079</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.312686875616009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6080125771799842</v>
+      </c>
+      <c r="P12">
+        <v>0.7843413139411126</v>
+      </c>
+      <c r="Q12">
+        <v>1.056602471732617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.952665399139164</v>
+        <v>0.4107729903365254</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1147299517845184</v>
+        <v>0.1218029848489977</v>
       </c>
       <c r="E13">
-        <v>0.2134612708958343</v>
+        <v>0.08583522067510252</v>
       </c>
       <c r="F13">
-        <v>3.280270141153892</v>
+        <v>0.4180908126762262</v>
       </c>
       <c r="G13">
-        <v>0.0007164228981293415</v>
+        <v>0.2691353354147168</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1176372044951393</v>
       </c>
       <c r="I13">
-        <v>0.6868178671705749</v>
+        <v>0.002148432374607268</v>
       </c>
       <c r="J13">
-        <v>0.3755415923831293</v>
+        <v>0.2043906936005087</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1961919070660194</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.422379647062229</v>
       </c>
       <c r="N13">
-        <v>4.563130066384986</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.259168750958963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4338885691727583</v>
+      </c>
+      <c r="P13">
+        <v>0.8192089755168723</v>
+      </c>
+      <c r="Q13">
+        <v>0.9497455209418604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9363690428266409</v>
+        <v>0.4111530642190502</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1133612314575743</v>
+        <v>0.124568142071837</v>
       </c>
       <c r="E14">
-        <v>0.2098385750749756</v>
+        <v>0.06814309391242168</v>
       </c>
       <c r="F14">
-        <v>3.219704114662619</v>
+        <v>0.3890734903469095</v>
       </c>
       <c r="G14">
-        <v>0.0007178421651131303</v>
+        <v>0.2437956470340694</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1663373538272879</v>
       </c>
       <c r="I14">
-        <v>0.6782649886334937</v>
+        <v>0.002270681747345904</v>
       </c>
       <c r="J14">
-        <v>0.3686267927804607</v>
+        <v>0.192235188970713</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1969779934278071</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.380925426625481</v>
       </c>
       <c r="N14">
-        <v>4.496219825738649</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.085271643591739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3233226597600805</v>
+      </c>
+      <c r="P14">
+        <v>0.8465787791172588</v>
+      </c>
+      <c r="Q14">
+        <v>0.8705219206912034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9263855807037942</v>
+        <v>0.4072831256606975</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1125272693568533</v>
+        <v>0.1245152551422137</v>
       </c>
       <c r="E15">
-        <v>0.207630118487522</v>
+        <v>0.06804258356616621</v>
       </c>
       <c r="F15">
-        <v>3.182773359589191</v>
+        <v>0.3800760688996903</v>
       </c>
       <c r="G15">
-        <v>0.0007187125570935986</v>
+        <v>0.2364794555829022</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1786157549217364</v>
       </c>
       <c r="I15">
-        <v>0.6730320097669491</v>
+        <v>0.002436597759444048</v>
       </c>
       <c r="J15">
-        <v>0.364411117899536</v>
+        <v>0.1890074190446285</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.197801559412369</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.357936696146254</v>
       </c>
       <c r="N15">
-        <v>4.455239622433453</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.979234096696359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2967458604503932</v>
+      </c>
+      <c r="P15">
+        <v>0.8541969248203714</v>
+      </c>
+      <c r="Q15">
+        <v>0.8482229835691157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8691508517120781</v>
+        <v>0.3801943068761631</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.107813073861557</v>
+        <v>0.1168636911094723</v>
       </c>
       <c r="E16">
-        <v>0.1951278692833114</v>
+        <v>0.06740430208779991</v>
       </c>
       <c r="F16">
-        <v>2.97356936333253</v>
+        <v>0.3639002065781014</v>
       </c>
       <c r="G16">
-        <v>0.0007237183369611276</v>
+        <v>0.2271298139595217</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1649044443408059</v>
       </c>
       <c r="I16">
-        <v>0.6431340378037191</v>
+        <v>0.002784872377081804</v>
       </c>
       <c r="J16">
-        <v>0.3405405347663475</v>
+        <v>0.1874827978023106</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2032529899151743</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.221591973665625</v>
       </c>
       <c r="N16">
-        <v>4.220463849171153</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.378520743813056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2819826516498836</v>
+      </c>
+      <c r="P16">
+        <v>0.8542197125949187</v>
+      </c>
+      <c r="Q16">
+        <v>0.8250360735081301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8340171836813681</v>
+        <v>0.3591349296238491</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.104976043754931</v>
+        <v>0.1095506194280489</v>
       </c>
       <c r="E17">
-        <v>0.1875866459848439</v>
+        <v>0.07090766133978565</v>
       </c>
       <c r="F17">
-        <v>2.847254704356175</v>
+        <v>0.3668994325139465</v>
       </c>
       <c r="G17">
-        <v>0.0007268071006840783</v>
+        <v>0.2333280164292759</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1266937896501759</v>
       </c>
       <c r="I17">
-        <v>0.6248725872898859</v>
+        <v>0.003017558850813451</v>
       </c>
       <c r="J17">
-        <v>0.3261365002021819</v>
+        <v>0.1927720309678804</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2070219620344678</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.139431820892582</v>
       </c>
       <c r="N17">
-        <v>4.076494888478578</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.015780684864751</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.326228740569114</v>
+      </c>
+      <c r="P17">
+        <v>0.8399283223202829</v>
+      </c>
+      <c r="Q17">
+        <v>0.849145113309433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8138007528255002</v>
+        <v>0.343908080251353</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1033633474489903</v>
+        <v>0.1017617646018039</v>
       </c>
       <c r="E18">
-        <v>0.1832931440395313</v>
+        <v>0.1063836150401904</v>
       </c>
       <c r="F18">
-        <v>2.77529158949261</v>
+        <v>0.3872692513566065</v>
       </c>
       <c r="G18">
-        <v>0.0007285909642391866</v>
+        <v>0.2544526625204426</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07401716962614557</v>
       </c>
       <c r="I18">
-        <v>0.6143983206426071</v>
+        <v>0.002859295168325282</v>
       </c>
       <c r="J18">
-        <v>0.317933389332083</v>
+        <v>0.2048559376067516</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2102267334958443</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.09109497558083</v>
       </c>
       <c r="N18">
-        <v>3.993709333444542</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>7.809107281374224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4388194762032001</v>
+      </c>
+      <c r="P18">
+        <v>0.8126046866305785</v>
+      </c>
+      <c r="Q18">
+        <v>0.9191761485707559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8069543263250978</v>
+        <v>0.3287688133778204</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.102820493259479</v>
+        <v>0.09455535071169408</v>
       </c>
       <c r="E19">
-        <v>0.1818467053693524</v>
+        <v>0.206960255543823</v>
       </c>
       <c r="F19">
-        <v>2.751039638791383</v>
+        <v>0.4195547553824639</v>
       </c>
       <c r="G19">
-        <v>0.0007291962665544157</v>
+        <v>0.2859888274057099</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02966948564679228</v>
       </c>
       <c r="I19">
-        <v>0.6108569212605985</v>
+        <v>0.002959877903175645</v>
       </c>
       <c r="J19">
-        <v>0.3151694092984201</v>
+        <v>0.2213067545562666</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2131698337138611</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.08090811382641</v>
       </c>
       <c r="N19">
-        <v>3.965683291769437</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>7.739454382194197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6196461566685514</v>
+      </c>
+      <c r="P19">
+        <v>0.7822814664876034</v>
+      </c>
+      <c r="Q19">
+        <v>1.02047383126461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8377580912796532</v>
+        <v>0.3250522937012192</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1052760505135453</v>
+        <v>0.08870360259259513</v>
       </c>
       <c r="E20">
-        <v>0.188384797088851</v>
+        <v>0.4809080542903885</v>
       </c>
       <c r="F20">
-        <v>2.860628542161294</v>
+        <v>0.4863050527390058</v>
       </c>
       <c r="G20">
-        <v>0.0007264775579663985</v>
+        <v>0.3475933932583075</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.006778431756067516</v>
       </c>
       <c r="I20">
-        <v>0.6268135205769454</v>
+        <v>0.002740376807375711</v>
       </c>
       <c r="J20">
-        <v>0.3276612379046497</v>
+        <v>0.2504260516719512</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2151993981297982</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.164766105324333</v>
       </c>
       <c r="N20">
-        <v>4.091818400228959</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>8.054188154448923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9836493202293042</v>
+      </c>
+      <c r="P20">
+        <v>0.7377317763736571</v>
+      </c>
+      <c r="Q20">
+        <v>1.212179554483356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9411559823938092</v>
+        <v>0.365001944323879</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1137623300267521</v>
+        <v>0.09847777466688967</v>
       </c>
       <c r="E21">
-        <v>0.2109004301091844</v>
+        <v>0.5599200727467277</v>
       </c>
       <c r="F21">
-        <v>3.237458537288376</v>
+        <v>0.5374025552054462</v>
       </c>
       <c r="G21">
-        <v>0.0007174250776484651</v>
+        <v>0.385494329701686</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.009672464873439056</v>
       </c>
       <c r="I21">
-        <v>0.680775944521713</v>
+        <v>0.002309814521198383</v>
       </c>
       <c r="J21">
-        <v>0.3706536622629955</v>
+        <v>0.263581427917984</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2062089600788699</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.417194787335063</v>
       </c>
       <c r="N21">
-        <v>4.515872099351498</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>9.136248527455791</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.137057855773079</v>
+      </c>
+      <c r="P21">
+        <v>0.7162742655551497</v>
+      </c>
+      <c r="Q21">
+        <v>1.320390339684394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.008665481205611</v>
+        <v>0.395278256041081</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1195033031278285</v>
+        <v>0.1051857868571773</v>
       </c>
       <c r="E22">
-        <v>0.226079004786115</v>
+        <v>0.5962121350101768</v>
       </c>
       <c r="F22">
-        <v>3.491093662348447</v>
+        <v>0.5695596224260413</v>
       </c>
       <c r="G22">
-        <v>0.0007115577295728945</v>
+        <v>0.4089395327289083</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01167833867505141</v>
       </c>
       <c r="I22">
-        <v>0.71630741384309</v>
+        <v>0.001802132672510837</v>
       </c>
       <c r="J22">
-        <v>0.3996219918740707</v>
+        <v>0.2715905313951055</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2006862967062872</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.577413532941023</v>
       </c>
       <c r="N22">
-        <v>4.793206235152695</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>9.864460275483566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.219066501322217</v>
+      </c>
+      <c r="P22">
+        <v>0.7035382869535383</v>
+      </c>
+      <c r="Q22">
+        <v>1.387061444869857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9726400862101627</v>
+        <v>0.3827329769387262</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1164201378040772</v>
+        <v>0.1014958126597847</v>
       </c>
       <c r="E23">
-        <v>0.2179317954575097</v>
+        <v>0.5772813579580003</v>
       </c>
       <c r="F23">
-        <v>3.354987425575189</v>
+        <v>0.5530634429039978</v>
       </c>
       <c r="G23">
-        <v>0.0007146855933130927</v>
+        <v>0.3970954846000012</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01058970066432831</v>
       </c>
       <c r="I23">
-        <v>0.6973192642933483</v>
+        <v>0.001744615922532944</v>
       </c>
       <c r="J23">
-        <v>0.3840739580264625</v>
+        <v>0.2676614541320248</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2040508147668163</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.487331491532814</v>
       </c>
       <c r="N23">
-        <v>4.645170341327685</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>9.473692027688514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.174370420983294</v>
+      </c>
+      <c r="P23">
+        <v>0.7092993687044427</v>
+      </c>
+      <c r="Q23">
+        <v>1.353619910481569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8360668819178159</v>
+        <v>0.3287395488012379</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1051403605640147</v>
+        <v>0.08772130207617579</v>
       </c>
       <c r="E24">
-        <v>0.1880238227616005</v>
+        <v>0.5049645843949122</v>
       </c>
       <c r="F24">
-        <v>2.85458019693661</v>
+        <v>0.4907124410213015</v>
       </c>
       <c r="G24">
-        <v>0.0007266265188539123</v>
+        <v>0.3521570851793427</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.006876342443888961</v>
       </c>
       <c r="I24">
-        <v>0.6259359484111684</v>
+        <v>0.002219108298669781</v>
       </c>
       <c r="J24">
-        <v>0.3269716626695356</v>
+        <v>0.2528123787401313</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2164806386878357</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.15440768357891</v>
       </c>
       <c r="N24">
-        <v>4.084890690002226</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>8.036818347951566</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.00707361043861</v>
+      </c>
+      <c r="P24">
+        <v>0.7340320838741263</v>
+      </c>
+      <c r="Q24">
+        <v>1.226848625928312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6884222602582497</v>
+        <v>0.2693747885626152</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09369203427059603</v>
+        <v>0.07289150520465171</v>
       </c>
       <c r="E25">
-        <v>0.1574144629667309</v>
+        <v>0.4270659519644084</v>
       </c>
       <c r="F25">
-        <v>2.340651936903285</v>
+        <v>0.4259497942252182</v>
       </c>
       <c r="G25">
-        <v>0.000739792430970059</v>
+        <v>0.3057478751065048</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.003649950696362647</v>
       </c>
       <c r="I25">
-        <v>0.5500536194376551</v>
+        <v>0.003126002302678899</v>
       </c>
       <c r="J25">
-        <v>0.2684393150567246</v>
+        <v>0.2380503077742588</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.230701239749993</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.796497580976848</v>
       </c>
       <c r="N25">
-        <v>3.481366830697027</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>6.560516147654027</v>
+        <v>0.8274319328027318</v>
+      </c>
+      <c r="P25">
+        <v>0.7632752061157433</v>
+      </c>
+      <c r="Q25">
+        <v>1.097082451971431</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2333631772716984</v>
+        <v>0.2305989666669745</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06171857706391393</v>
+        <v>0.06198014008851516</v>
       </c>
       <c r="E2">
-        <v>0.3707356455717843</v>
+        <v>0.3684255371386485</v>
       </c>
       <c r="F2">
-        <v>0.3818681980556349</v>
+        <v>0.3829771702698679</v>
       </c>
       <c r="G2">
-        <v>0.2748353089727118</v>
+        <v>0.2594422487115864</v>
       </c>
       <c r="H2">
-        <v>0.001849380495175801</v>
+        <v>0.001860359886633356</v>
       </c>
       <c r="I2">
-        <v>0.003340329808892317</v>
+        <v>0.001867435770802395</v>
       </c>
       <c r="J2">
-        <v>0.2290666985295147</v>
+        <v>0.2738243313465318</v>
       </c>
       <c r="K2">
-        <v>0.2430588329822676</v>
+        <v>0.2197006426799368</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1116336831576863</v>
       </c>
       <c r="M2">
-        <v>1.522737353678338</v>
+        <v>0.05924522798744705</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6934471179257571</v>
+        <v>1.505790014785248</v>
       </c>
       <c r="P2">
-        <v>0.7848926572311221</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.012367993153845</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6941808734203221</v>
+      </c>
+      <c r="R2">
+        <v>0.7639922013932896</v>
+      </c>
+      <c r="S2">
+        <v>1.01772393889452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2033983834662791</v>
+        <v>0.2049705018956303</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05429080080849502</v>
+        <v>0.05437874893488726</v>
       </c>
       <c r="E3">
-        <v>0.3318418911457215</v>
+        <v>0.330278099639159</v>
       </c>
       <c r="F3">
-        <v>0.351948365444116</v>
+        <v>0.3538686823460822</v>
       </c>
       <c r="G3">
-        <v>0.253665304396911</v>
+        <v>0.2386750867997307</v>
       </c>
       <c r="H3">
-        <v>0.0009384969400363374</v>
+        <v>0.000957629003629501</v>
       </c>
       <c r="I3">
-        <v>0.004060576273980487</v>
+        <v>0.002265690300383039</v>
       </c>
       <c r="J3">
-        <v>0.2229825600830466</v>
+        <v>0.2667825823598022</v>
       </c>
       <c r="K3">
-        <v>0.2511511632032271</v>
+        <v>0.2269490552733435</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1158325842967516</v>
       </c>
       <c r="M3">
-        <v>1.34357869262368</v>
+        <v>0.06227725341274315</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6040480262206813</v>
+        <v>1.321630218378715</v>
       </c>
       <c r="P3">
-        <v>0.8019642132630729</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9544835083769811</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6037566906849392</v>
+      </c>
+      <c r="R3">
+        <v>0.7782517629351986</v>
+      </c>
+      <c r="S3">
+        <v>0.9621421845472611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1845852826959486</v>
+        <v>0.1886844334451752</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04972888177651669</v>
+        <v>0.04971466140437997</v>
       </c>
       <c r="E4">
-        <v>0.3078740453308555</v>
+        <v>0.3067542701154267</v>
       </c>
       <c r="F4">
-        <v>0.3339829853485554</v>
+        <v>0.3363564239186587</v>
       </c>
       <c r="G4">
-        <v>0.2409873713470461</v>
+        <v>0.2262764819898209</v>
       </c>
       <c r="H4">
-        <v>0.0005179370762686819</v>
+        <v>0.0005375507760181364</v>
       </c>
       <c r="I4">
-        <v>0.004592431094281757</v>
+        <v>0.002584094388065949</v>
       </c>
       <c r="J4">
-        <v>0.2194773624886821</v>
+        <v>0.2625653016015903</v>
       </c>
       <c r="K4">
-        <v>0.256285953833677</v>
+        <v>0.231538900184006</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1187257194820495</v>
       </c>
       <c r="M4">
-        <v>1.233749741836846</v>
+        <v>0.06443020851354531</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5492334422959502</v>
+        <v>1.208912662088551</v>
       </c>
       <c r="P4">
-        <v>0.8130484018542923</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.920096939857828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5483411504849798</v>
+      </c>
+      <c r="R4">
+        <v>0.7876569421242188</v>
+      </c>
+      <c r="S4">
+        <v>0.9290248122008791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1759300038193032</v>
+        <v>0.1810677201714697</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04789559287520717</v>
+        <v>0.04783902832058118</v>
       </c>
       <c r="E5">
-        <v>0.2979709428429871</v>
+        <v>0.2970358004608826</v>
       </c>
       <c r="F5">
-        <v>0.326570956409526</v>
+        <v>0.3291295777874765</v>
       </c>
       <c r="G5">
-        <v>0.2357110994524589</v>
+        <v>0.2211344291114941</v>
       </c>
       <c r="H5">
-        <v>0.0003792165749940679</v>
+        <v>0.000397960312408463</v>
       </c>
       <c r="I5">
-        <v>0.004910343287263697</v>
+        <v>0.002820833484744156</v>
       </c>
       <c r="J5">
-        <v>0.2180062928713014</v>
+        <v>0.2607768462139859</v>
       </c>
       <c r="K5">
-        <v>0.258278886009049</v>
+        <v>0.2333051204986298</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1198628653846843</v>
       </c>
       <c r="M5">
-        <v>1.190127641576595</v>
+        <v>0.06539531109895469</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5271315352876158</v>
+        <v>1.164087258993305</v>
       </c>
       <c r="P5">
-        <v>0.8178844147952589</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9057599294080632</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5259872923782893</v>
+      </c>
+      <c r="R5">
+        <v>0.7918035522513804</v>
+      </c>
+      <c r="S5">
+        <v>0.9152058772877751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1734034958992652</v>
+        <v>0.1787651098464238</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04762352638329048</v>
+        <v>0.04755775784822447</v>
       </c>
       <c r="E6">
-        <v>0.2961883958122797</v>
+        <v>0.2952925134544984</v>
       </c>
       <c r="F6">
-        <v>0.3251173355264285</v>
+        <v>0.32772022145096</v>
       </c>
       <c r="G6">
-        <v>0.2346129483972916</v>
+        <v>0.2200753820477601</v>
       </c>
       <c r="H6">
-        <v>0.0003579579857362347</v>
+        <v>0.0003765006450473507</v>
       </c>
       <c r="I6">
-        <v>0.00506863019444026</v>
+        <v>0.002978761262570018</v>
       </c>
       <c r="J6">
-        <v>0.2176450984769929</v>
+        <v>0.2603646139029578</v>
       </c>
       <c r="K6">
-        <v>0.2584425613873567</v>
+        <v>0.2334334368643445</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1199106255220732</v>
       </c>
       <c r="M6">
-        <v>1.184234957578866</v>
+        <v>0.06557724880656446</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5237333696537476</v>
+        <v>1.157908351113861</v>
       </c>
       <c r="P6">
-        <v>0.818908926633938</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9026636794039575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5225300283948258</v>
+      </c>
+      <c r="R6">
+        <v>0.7926931577011267</v>
+      </c>
+      <c r="S6">
+        <v>0.9122380912223207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1814969411777412</v>
+        <v>0.1859416235978131</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04979292044912143</v>
+        <v>0.04988287203309483</v>
       </c>
       <c r="E7">
-        <v>0.3073672395144555</v>
+        <v>0.3063759583847201</v>
       </c>
       <c r="F7">
-        <v>0.3332590273329146</v>
+        <v>0.3349540469241674</v>
       </c>
       <c r="G7">
-        <v>0.2402978856466547</v>
+        <v>0.2282693638739346</v>
       </c>
       <c r="H7">
-        <v>0.0005154651832612878</v>
+        <v>0.0005339590532789096</v>
       </c>
       <c r="I7">
-        <v>0.004865843288800242</v>
+        <v>0.002891916278987772</v>
       </c>
       <c r="J7">
-        <v>0.2191296918581003</v>
+        <v>0.2583017127001028</v>
       </c>
       <c r="K7">
-        <v>0.2558527625710094</v>
+        <v>0.2310644420907364</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1183264024338859</v>
       </c>
       <c r="M7">
-        <v>1.236856040474805</v>
+        <v>0.06447389834371275</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5496774272649319</v>
+        <v>1.210289908922334</v>
       </c>
       <c r="P7">
-        <v>0.8137100943836266</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9179064371491137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5484472717193825</v>
+      </c>
+      <c r="R7">
+        <v>0.7884418612270174</v>
+      </c>
+      <c r="S7">
+        <v>0.924694419746757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2191490641026093</v>
+        <v>0.2187414373826613</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05927604441266965</v>
+        <v>0.05984210939593737</v>
       </c>
       <c r="E8">
-        <v>0.3568465229083699</v>
+        <v>0.355175969819598</v>
       </c>
       <c r="F8">
-        <v>0.3706405941503945</v>
+        <v>0.3696912381459754</v>
       </c>
       <c r="G8">
-        <v>0.266650350680905</v>
+        <v>0.2603062870935062</v>
       </c>
       <c r="H8">
-        <v>0.00150428713709716</v>
+        <v>0.00151319765711122</v>
       </c>
       <c r="I8">
-        <v>0.003896456121267988</v>
+        <v>0.002362955773925535</v>
       </c>
       <c r="J8">
-        <v>0.2264893349550547</v>
+        <v>0.2581300861888067</v>
       </c>
       <c r="K8">
-        <v>0.2452306673973901</v>
+        <v>0.2214788548529594</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1125277271562224</v>
       </c>
       <c r="M8">
-        <v>1.465856341187276</v>
+        <v>0.06018602710571108</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6635921485140486</v>
+        <v>1.441889530864216</v>
       </c>
       <c r="P8">
-        <v>0.7915172326577284</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9895297566000352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6629402653676522</v>
+      </c>
+      <c r="R8">
+        <v>0.7702701988299268</v>
+      </c>
+      <c r="S8">
+        <v>0.9883255265396258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2949414884707693</v>
+        <v>0.2829745124238201</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07772194410504341</v>
+        <v>0.07886362810073422</v>
       </c>
       <c r="E9">
-        <v>0.4539780738243593</v>
+        <v>0.4504432841487542</v>
       </c>
       <c r="F9">
-        <v>0.4485732506608784</v>
+        <v>0.4446057411561313</v>
       </c>
       <c r="G9">
-        <v>0.32223146769023</v>
+        <v>0.3175778700145457</v>
       </c>
       <c r="H9">
-        <v>0.004643295726586394</v>
+        <v>0.004597610826401533</v>
       </c>
       <c r="I9">
-        <v>0.002319986820434217</v>
+        <v>0.001457838533358569</v>
       </c>
       <c r="J9">
-        <v>0.2434431825352164</v>
+        <v>0.273113752914206</v>
       </c>
       <c r="K9">
-        <v>0.226529521235006</v>
+        <v>0.2047140656102893</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1043017102725474</v>
       </c>
       <c r="M9">
-        <v>1.910153637529447</v>
+        <v>0.05413064213719965</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8865037704805658</v>
+        <v>1.898438424390434</v>
       </c>
       <c r="P9">
-        <v>0.7517581418440784</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.143480629508986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8883231683262096</v>
+      </c>
+      <c r="R9">
+        <v>0.7381478299693995</v>
+      </c>
+      <c r="S9">
+        <v>1.133412120572643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3482884897785254</v>
+        <v>0.329051843476492</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09218680698643311</v>
+        <v>0.0944372851892723</v>
       </c>
       <c r="E10">
-        <v>0.4938290097146876</v>
+        <v>0.4896484806203105</v>
       </c>
       <c r="F10">
-        <v>0.5028936948355209</v>
+        <v>0.4924113204597091</v>
       </c>
       <c r="G10">
-        <v>0.3596964542740153</v>
+        <v>0.3727198230721029</v>
       </c>
       <c r="H10">
-        <v>0.007663065423965776</v>
+        <v>0.007532472978438065</v>
       </c>
       <c r="I10">
-        <v>0.001800593300419706</v>
+        <v>0.001361135414168047</v>
       </c>
       <c r="J10">
-        <v>0.254534885716339</v>
+        <v>0.2608782674305914</v>
       </c>
       <c r="K10">
-        <v>0.2128742753416324</v>
+        <v>0.1923937679338001</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09959654670205376</v>
       </c>
       <c r="M10">
-        <v>2.239572368160253</v>
+        <v>0.05070096353251774</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.01706269307283</v>
+        <v>2.227689229640703</v>
       </c>
       <c r="P10">
-        <v>0.7295142448763556</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.246547728479499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.018833821242829</v>
+      </c>
+      <c r="R10">
+        <v>0.7232491610106138</v>
+      </c>
+      <c r="S10">
+        <v>1.216576551734704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3800042241123265</v>
+        <v>0.3655758900238197</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.106483362697162</v>
+        <v>0.1104107621007415</v>
       </c>
       <c r="E11">
-        <v>0.2842008791773623</v>
+        <v>0.2814918168730074</v>
       </c>
       <c r="F11">
-        <v>0.4822584503107734</v>
+        <v>0.4635880816491209</v>
       </c>
       <c r="G11">
-        <v>0.3322663341564578</v>
+        <v>0.3807757093744755</v>
       </c>
       <c r="H11">
-        <v>0.02514768314417992</v>
+        <v>0.02497609740563078</v>
       </c>
       <c r="I11">
-        <v>0.002177119598192334</v>
+        <v>0.001944782979358628</v>
       </c>
       <c r="J11">
-        <v>0.2374567283984845</v>
+        <v>0.2061073361567267</v>
       </c>
       <c r="K11">
-        <v>0.2021562702961199</v>
+        <v>0.1837402114334629</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09720877119281379</v>
       </c>
       <c r="M11">
-        <v>2.388991065467991</v>
+        <v>0.04750070934148187</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7970829894446538</v>
+        <v>2.353240371573008</v>
       </c>
       <c r="P11">
-        <v>0.7547140654118536</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.15279139819603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7946711233445001</v>
+      </c>
+      <c r="R11">
+        <v>0.755387531579963</v>
+      </c>
+      <c r="S11">
+        <v>1.098658237197469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4012408963726273</v>
+        <v>0.3917756800774299</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1157792831606201</v>
+        <v>0.1205280604792165</v>
       </c>
       <c r="E12">
-        <v>0.1574627841904963</v>
+        <v>0.1550730407500396</v>
       </c>
       <c r="F12">
-        <v>0.4543103182040866</v>
+        <v>0.4329336059754496</v>
       </c>
       <c r="G12">
-        <v>0.3028189776788821</v>
+        <v>0.3661414497809261</v>
       </c>
       <c r="H12">
-        <v>0.06286141930750233</v>
+        <v>0.06268555539249121</v>
       </c>
       <c r="I12">
-        <v>0.002134038155611861</v>
+        <v>0.001926755707195582</v>
       </c>
       <c r="J12">
-        <v>0.2213083768251636</v>
+        <v>0.1789173199127561</v>
       </c>
       <c r="K12">
-        <v>0.1974136215854627</v>
+        <v>0.1803128930884279</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09668769557080603</v>
       </c>
       <c r="M12">
-        <v>2.439548607087517</v>
+        <v>0.04584074451902276</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6080125771799842</v>
+        <v>2.389182504704451</v>
       </c>
       <c r="P12">
-        <v>0.7843413139411126</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.056602471732617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6038406437755484</v>
+      </c>
+      <c r="R12">
+        <v>0.7883626228936222</v>
+      </c>
+      <c r="S12">
+        <v>0.9954545962560815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4107729903365254</v>
+        <v>0.4066324903897254</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1218029848489977</v>
+        <v>0.1262976529394706</v>
       </c>
       <c r="E13">
-        <v>0.08583522067510252</v>
+        <v>0.08319275961931716</v>
       </c>
       <c r="F13">
-        <v>0.4180908126762262</v>
+        <v>0.3995419821380182</v>
       </c>
       <c r="G13">
-        <v>0.2691353354147168</v>
+        <v>0.3259488875915366</v>
       </c>
       <c r="H13">
-        <v>0.1176372044951393</v>
+        <v>0.1174853986311462</v>
       </c>
       <c r="I13">
-        <v>0.002148432374607268</v>
+        <v>0.001897831240482262</v>
       </c>
       <c r="J13">
-        <v>0.2043906936005087</v>
+        <v>0.1711370034185222</v>
       </c>
       <c r="K13">
-        <v>0.1961919070660194</v>
+        <v>0.179860122349897</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09685999774833398</v>
       </c>
       <c r="M13">
-        <v>2.422379647062229</v>
+        <v>0.04518061803184537</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4338885691727583</v>
+        <v>2.367642597734402</v>
       </c>
       <c r="P13">
-        <v>0.8192089755168723</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9497455209418604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4297790849497005</v>
+      </c>
+      <c r="R13">
+        <v>0.8220496089800164</v>
+      </c>
+      <c r="S13">
+        <v>0.8981457419043437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4111530642190502</v>
+        <v>0.4109953239534008</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.124568142071837</v>
+        <v>0.1283694232075163</v>
       </c>
       <c r="E14">
-        <v>0.06814309391242168</v>
+        <v>0.06526037894867343</v>
       </c>
       <c r="F14">
-        <v>0.3890734903469095</v>
+        <v>0.374689728328029</v>
       </c>
       <c r="G14">
-        <v>0.2437956470340694</v>
+        <v>0.2879036614060482</v>
       </c>
       <c r="H14">
-        <v>0.1663373538272879</v>
+        <v>0.1662112217552334</v>
       </c>
       <c r="I14">
-        <v>0.002270681747345904</v>
+        <v>0.001972311703935858</v>
       </c>
       <c r="J14">
-        <v>0.192235188970713</v>
+        <v>0.1727044013827594</v>
       </c>
       <c r="K14">
-        <v>0.1969779934278071</v>
+        <v>0.1808141473325642</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09717341195291773</v>
       </c>
       <c r="M14">
-        <v>2.380925426625481</v>
+        <v>0.04523980008997311</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3233226597600805</v>
+        <v>2.327529315328633</v>
       </c>
       <c r="P14">
-        <v>0.8465787791172588</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.8705219206912034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3198172504452828</v>
+      </c>
+      <c r="R14">
+        <v>0.8460760449749785</v>
+      </c>
+      <c r="S14">
+        <v>0.8318171840311805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4072831256606975</v>
+        <v>0.4082329782387575</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1245152551422137</v>
+        <v>0.1279268315416715</v>
       </c>
       <c r="E15">
-        <v>0.06804258356616621</v>
+        <v>0.06514125378904634</v>
       </c>
       <c r="F15">
-        <v>0.3800760688996903</v>
+        <v>0.367646155319477</v>
       </c>
       <c r="G15">
-        <v>0.2364794555829022</v>
+        <v>0.274183694600751</v>
       </c>
       <c r="H15">
-        <v>0.1786157549217364</v>
+        <v>0.1785010851074986</v>
       </c>
       <c r="I15">
-        <v>0.002436597759444048</v>
+        <v>0.002131019365241293</v>
       </c>
       <c r="J15">
-        <v>0.1890074190446285</v>
+        <v>0.1760965638097574</v>
       </c>
       <c r="K15">
-        <v>0.197801559412369</v>
+        <v>0.1815534868051936</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09730952966405404</v>
       </c>
       <c r="M15">
-        <v>2.357936696146254</v>
+        <v>0.04546593413809374</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2967458604503932</v>
+        <v>2.30666537372619</v>
       </c>
       <c r="P15">
-        <v>0.8541969248203714</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.8482229835691157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2935584245231411</v>
+      </c>
+      <c r="R15">
+        <v>0.851847509200681</v>
+      </c>
+      <c r="S15">
+        <v>0.8153301820452583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3801943068761631</v>
+        <v>0.3817434426505457</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1168636911094723</v>
+        <v>0.1185225974139286</v>
       </c>
       <c r="E16">
-        <v>0.06740430208779991</v>
+        <v>0.06485813363001336</v>
       </c>
       <c r="F16">
-        <v>0.3639002065781014</v>
+        <v>0.3592994315946569</v>
       </c>
       <c r="G16">
-        <v>0.2271298139595217</v>
+        <v>0.2374752190303795</v>
       </c>
       <c r="H16">
-        <v>0.1649044443408059</v>
+        <v>0.1648383317493938</v>
       </c>
       <c r="I16">
-        <v>0.002784872377081804</v>
+        <v>0.002342240833351106</v>
       </c>
       <c r="J16">
-        <v>0.1874827978023106</v>
+        <v>0.2044283566338692</v>
       </c>
       <c r="K16">
-        <v>0.2032529899151743</v>
+        <v>0.1860009635120154</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09781563505649604</v>
       </c>
       <c r="M16">
-        <v>2.221591973665625</v>
+        <v>0.0473891195207391</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2819826516498836</v>
+        <v>2.185647340679964</v>
       </c>
       <c r="P16">
-        <v>0.8542197125949187</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.8250360735081301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2802926684982481</v>
+      </c>
+      <c r="R16">
+        <v>0.8440468613206491</v>
+      </c>
+      <c r="S16">
+        <v>0.8147087274235787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3591349296238491</v>
+        <v>0.3593130732258771</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1095506194280489</v>
+        <v>0.1105176709052529</v>
       </c>
       <c r="E17">
-        <v>0.07090766133978565</v>
+        <v>0.06853251120458115</v>
       </c>
       <c r="F17">
-        <v>0.3668994325139465</v>
+        <v>0.3653065341290755</v>
       </c>
       <c r="G17">
-        <v>0.2333280164292759</v>
+        <v>0.2323257755466344</v>
       </c>
       <c r="H17">
-        <v>0.1266937896501759</v>
+        <v>0.1266477353411517</v>
       </c>
       <c r="I17">
-        <v>0.003017558850813451</v>
+        <v>0.002495032317739287</v>
       </c>
       <c r="J17">
-        <v>0.1927720309678804</v>
+        <v>0.2235620321780516</v>
       </c>
       <c r="K17">
-        <v>0.2070219620344678</v>
+        <v>0.189074267430307</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09834052411529903</v>
       </c>
       <c r="M17">
-        <v>2.139431820892582</v>
+        <v>0.04875567215809062</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.326228740569114</v>
+        <v>2.111898615772958</v>
       </c>
       <c r="P17">
-        <v>0.8399283223202829</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.849145113309433</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.325344542661071</v>
+      </c>
+      <c r="R17">
+        <v>0.8268785246911037</v>
+      </c>
+      <c r="S17">
+        <v>0.8473986548285524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.343908080251353</v>
+        <v>0.34040994117629</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1017617646018039</v>
+        <v>0.1025426043948556</v>
       </c>
       <c r="E18">
-        <v>0.1063836150401904</v>
+        <v>0.1038953907448761</v>
       </c>
       <c r="F18">
-        <v>0.3872692513566065</v>
+        <v>0.3863706736145289</v>
       </c>
       <c r="G18">
-        <v>0.2544526625204426</v>
+        <v>0.2481338614737822</v>
       </c>
       <c r="H18">
-        <v>0.07401716962614557</v>
+        <v>0.07397662860664411</v>
       </c>
       <c r="I18">
-        <v>0.002859295168325282</v>
+        <v>0.002258040903311276</v>
       </c>
       <c r="J18">
-        <v>0.2048559376067516</v>
+        <v>0.2416469857058772</v>
       </c>
       <c r="K18">
-        <v>0.2102267334958443</v>
+        <v>0.1916533806710712</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09905416775131037</v>
       </c>
       <c r="M18">
-        <v>2.09109497558083</v>
+        <v>0.04981776713755769</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4388194762032001</v>
+        <v>2.070749415209264</v>
       </c>
       <c r="P18">
-        <v>0.8126046866305785</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9191761485707559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4388033269061964</v>
+      </c>
+      <c r="R18">
+        <v>0.7993801799862794</v>
+      </c>
+      <c r="S18">
+        <v>0.9192925554059173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3287688133778204</v>
+        <v>0.3204564794729805</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09455535071169408</v>
+        <v>0.09540624678815846</v>
       </c>
       <c r="E19">
-        <v>0.206960255543823</v>
+        <v>0.2039764157612183</v>
       </c>
       <c r="F19">
-        <v>0.4195547553824639</v>
+        <v>0.4180472409725482</v>
       </c>
       <c r="G19">
-        <v>0.2859888274057099</v>
+        <v>0.2774550929564867</v>
       </c>
       <c r="H19">
-        <v>0.02966948564679228</v>
+        <v>0.0296231374682705</v>
       </c>
       <c r="I19">
-        <v>0.002959877903175645</v>
+        <v>0.002393532440457591</v>
       </c>
       <c r="J19">
-        <v>0.2213067545562666</v>
+        <v>0.259596951457354</v>
       </c>
       <c r="K19">
-        <v>0.2131698337138611</v>
+        <v>0.1939025900122955</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09989245428046123</v>
       </c>
       <c r="M19">
-        <v>2.08090811382641</v>
+        <v>0.05065871165499947</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6196461566685514</v>
+        <v>2.067186788436061</v>
       </c>
       <c r="P19">
-        <v>0.7822814664876034</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.02047383126461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6207387266712985</v>
+      </c>
+      <c r="R19">
+        <v>0.7699846241690196</v>
+      </c>
+      <c r="S19">
+        <v>1.018575205192519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3250522937012192</v>
+        <v>0.3080359585160437</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08870360259259513</v>
+        <v>0.09022203980515542</v>
       </c>
       <c r="E20">
-        <v>0.4809080542903885</v>
+        <v>0.4766004825995651</v>
       </c>
       <c r="F20">
-        <v>0.4863050527390058</v>
+        <v>0.4803188260672542</v>
       </c>
       <c r="G20">
-        <v>0.3475933932583075</v>
+        <v>0.3461611173626835</v>
       </c>
       <c r="H20">
-        <v>0.006778431756067516</v>
+        <v>0.006684639837776896</v>
       </c>
       <c r="I20">
-        <v>0.002740376807375711</v>
+        <v>0.002336575167841026</v>
       </c>
       <c r="J20">
-        <v>0.2504260516719512</v>
+        <v>0.27609575351849</v>
       </c>
       <c r="K20">
-        <v>0.2151993981297982</v>
+        <v>0.19476544505289</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1003967092417014</v>
       </c>
       <c r="M20">
-        <v>2.164766105324333</v>
+        <v>0.05120924577761699</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9836493202293042</v>
+        <v>2.157669897117188</v>
       </c>
       <c r="P20">
-        <v>0.7377317763736571</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.212179554483356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9863351670420215</v>
+      </c>
+      <c r="R20">
+        <v>0.7286137890612494</v>
+      </c>
+      <c r="S20">
+        <v>1.196156899110463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.365001944323879</v>
+        <v>0.3443100000779111</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09847777466688967</v>
+        <v>0.1031357950387246</v>
       </c>
       <c r="E21">
-        <v>0.5599200727467277</v>
+        <v>0.5570112502325273</v>
       </c>
       <c r="F21">
-        <v>0.5374025552054462</v>
+        <v>0.5120759185985762</v>
       </c>
       <c r="G21">
-        <v>0.385494329701686</v>
+        <v>0.4528444089392281</v>
       </c>
       <c r="H21">
-        <v>0.009672464873439056</v>
+        <v>0.009428685085280684</v>
       </c>
       <c r="I21">
-        <v>0.002309814521198383</v>
+        <v>0.002188507298550135</v>
       </c>
       <c r="J21">
-        <v>0.263581427917984</v>
+        <v>0.2093585123524875</v>
       </c>
       <c r="K21">
-        <v>0.2062089600788699</v>
+        <v>0.1858904032888242</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09762577439761755</v>
       </c>
       <c r="M21">
-        <v>2.417194787335063</v>
+        <v>0.04892361218514552</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.137057855773079</v>
+        <v>2.382238835533144</v>
       </c>
       <c r="P21">
-        <v>0.7162742655551497</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.320390339684394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.134314275422085</v>
+      </c>
+      <c r="R21">
+        <v>0.7179243716753021</v>
+      </c>
+      <c r="S21">
+        <v>1.244261153458865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.395278256041081</v>
+        <v>0.3723838087743445</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1051857868571773</v>
+        <v>0.1121533173021731</v>
       </c>
       <c r="E22">
-        <v>0.5962121350101768</v>
+        <v>0.5945371032473332</v>
       </c>
       <c r="F22">
-        <v>0.5695596224260413</v>
+        <v>0.5302585759219767</v>
       </c>
       <c r="G22">
-        <v>0.4089395327289083</v>
+        <v>0.5300823848753851</v>
       </c>
       <c r="H22">
-        <v>0.01167833867505141</v>
+        <v>0.01131935358273076</v>
       </c>
       <c r="I22">
-        <v>0.001802132672510837</v>
+        <v>0.001778695857750812</v>
       </c>
       <c r="J22">
-        <v>0.2715905313951055</v>
+        <v>0.1705710794409327</v>
       </c>
       <c r="K22">
-        <v>0.2006862967062872</v>
+        <v>0.1803561254843711</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09618497141294058</v>
       </c>
       <c r="M22">
-        <v>2.577413532941023</v>
+        <v>0.0476869402129072</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.219066501322217</v>
+        <v>2.521427331385468</v>
       </c>
       <c r="P22">
-        <v>0.7035382869535383</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.387061444869857</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.212143155818993</v>
+      </c>
+      <c r="R22">
+        <v>0.712941334353566</v>
+      </c>
+      <c r="S22">
+        <v>1.267654442907201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3827329769387262</v>
+        <v>0.3602233502448087</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1014958126597847</v>
+        <v>0.1069069764524215</v>
       </c>
       <c r="E23">
-        <v>0.5772813579580003</v>
+        <v>0.5745958149516426</v>
       </c>
       <c r="F23">
-        <v>0.5530634429039978</v>
+        <v>0.5231226969939087</v>
       </c>
       <c r="G23">
-        <v>0.3970954846000012</v>
+        <v>0.4809123259043133</v>
       </c>
       <c r="H23">
-        <v>0.01058970066432831</v>
+        <v>0.0103022749184025</v>
       </c>
       <c r="I23">
-        <v>0.001744615922532944</v>
+        <v>0.001613503204964672</v>
       </c>
       <c r="J23">
-        <v>0.2676614541320248</v>
+        <v>0.197484143742038</v>
       </c>
       <c r="K23">
-        <v>0.2040508147668163</v>
+        <v>0.1836647355493586</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09699362914143794</v>
       </c>
       <c r="M23">
-        <v>2.487331491532814</v>
+        <v>0.04854528460823815</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.174370420983294</v>
+        <v>2.447012631404988</v>
       </c>
       <c r="P23">
-        <v>0.7092993687044427</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.353619910481569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.170560180571854</v>
+      </c>
+      <c r="R23">
+        <v>0.7137350341537356</v>
+      </c>
+      <c r="S23">
+        <v>1.263186990459758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3287395488012379</v>
+        <v>0.3107870394417347</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08772130207617579</v>
+        <v>0.08923392296797061</v>
       </c>
       <c r="E24">
-        <v>0.5049645843949122</v>
+        <v>0.5004869259242355</v>
       </c>
       <c r="F24">
-        <v>0.4907124410213015</v>
+        <v>0.4846760766697571</v>
       </c>
       <c r="G24">
-        <v>0.3521570851793427</v>
+        <v>0.3500305148570817</v>
       </c>
       <c r="H24">
-        <v>0.006876342443888961</v>
+        <v>0.006781352750008129</v>
       </c>
       <c r="I24">
-        <v>0.002219108298669781</v>
+        <v>0.001725553962934612</v>
       </c>
       <c r="J24">
-        <v>0.2528123787401313</v>
+        <v>0.279082264128192</v>
       </c>
       <c r="K24">
-        <v>0.2164806386878357</v>
+        <v>0.1957485144294253</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1007582499362736</v>
       </c>
       <c r="M24">
-        <v>2.15440768357891</v>
+        <v>0.05158889784480847</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.00707361043861</v>
+        <v>2.1485723561253</v>
       </c>
       <c r="P24">
-        <v>0.7340320838741263</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.226848625928312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.010048951643306</v>
+      </c>
+      <c r="R24">
+        <v>0.7247818032244027</v>
+      </c>
+      <c r="S24">
+        <v>1.210616464335288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2693747885626152</v>
+        <v>0.2608427798647597</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07289150520465171</v>
+        <v>0.07370084467796545</v>
       </c>
       <c r="E25">
-        <v>0.4270659519644084</v>
+        <v>0.4239420701739078</v>
       </c>
       <c r="F25">
-        <v>0.4259497942252182</v>
+        <v>0.423954784097198</v>
       </c>
       <c r="G25">
-        <v>0.3057478751065048</v>
+        <v>0.2968215686463083</v>
       </c>
       <c r="H25">
-        <v>0.003649950696362647</v>
+        <v>0.003627583789285183</v>
       </c>
       <c r="I25">
-        <v>0.003126002302678899</v>
+        <v>0.00216802896742152</v>
       </c>
       <c r="J25">
-        <v>0.2380503077742588</v>
+        <v>0.27384573492931</v>
       </c>
       <c r="K25">
-        <v>0.230701239749993</v>
+        <v>0.2085626743849174</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1059494187400949</v>
       </c>
       <c r="M25">
-        <v>1.796497580976848</v>
+        <v>0.05539783648249763</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8274319328027318</v>
+        <v>1.783065995720818</v>
       </c>
       <c r="P25">
-        <v>0.7632752061157433</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.097082451971431</v>
+        <v>0.82889470330921</v>
+      </c>
+      <c r="R25">
+        <v>0.7472208555011832</v>
+      </c>
+      <c r="S25">
+        <v>1.093050744746364</v>
       </c>
     </row>
   </sheetData>
